--- a/output.xlsx
+++ b/output.xlsx
@@ -1,24 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>MJ by Fuel</t>
+  </si>
+  <si>
+    <t>Total System Cost</t>
+  </si>
+  <si>
+    <t>crudeoil</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -34,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +68,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,37 +392,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>546.44808743169403</v>
+      </c>
+      <c r="D2">
+        <v>34.738485558157691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>585.48009367681505</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Fuel Type</t>
   </si>
@@ -29,13 +29,19 @@
   </si>
   <si>
     <t>hydrogen</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>methane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,11 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -181,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,22 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>546.44808743169403</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>34.738485558157691</v>
+        <v>7.96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -440,7 +431,29 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>585.48009367681505</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Fuel Type</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>hydrogen</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>methane</t>
   </si>
 </sst>
 </file>
@@ -392,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +411,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>546.448087431694</v>
       </c>
       <c r="D2">
-        <v>7.96</v>
+        <v>34.73848555815769</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,29 +425,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
+        <v>585.480093676815</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -176,6 +181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -210,6 +216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +392,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -411,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>546.448087431694</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D2">
-        <v>34.73848555815769</v>
+        <v>34.738485558157691</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -425,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>585.480093676815</v>
+        <v>585.48009367681505</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -398,11 +398,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,11 +98,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -181,7 +176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,22 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,13 +411,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>546.44808743169403</v>
+        <v>546.448087431694</v>
       </c>
       <c r="D2">
-        <v>34.738485558157691</v>
+        <v>34.73848555815769</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -440,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>585.48009367681505</v>
+        <v>585.480093676815</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Fuel Type</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>hydrogen</t>
+  </si>
+  <si>
+    <t>biomass</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +414,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>546.448087431694</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>34.73848555815769</v>
+        <v>139.047619047619</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -425,7 +428,18 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>585.480093676815</v>
+        <v>2380.952380952381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -414,10 +414,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>546.4480874316939</v>
       </c>
       <c r="D2">
-        <v>139.047619047619</v>
+        <v>124.024199843872</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2380.952380952381</v>
+        <v>2371.194379391101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -439,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>546.4480874316939</v>
+        <v>546.448087431694</v>
       </c>
       <c r="D2">
         <v>124.024199843872</v>
@@ -428,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2371.194379391101</v>
+        <v>2371.1943793911</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/output.xlsx
+++ b/output.xlsx
@@ -417,7 +417,7 @@
         <v>546.448087431694</v>
       </c>
       <c r="D2">
-        <v>124.024199843872</v>
+        <v>68.08315059240589</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2371.1943793911</v>
+        <v>2315.449754633589</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,24 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fuel Type</t>
-  </si>
-  <si>
-    <t>MJ by Fuel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Total System Cost</t>
-  </si>
-  <si>
-    <t>crudeoil</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>biomass</t>
   </si>
 </sst>
 </file>
@@ -389,57 +374,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>546.448087431694</v>
-      </c>
-      <c r="D2">
-        <v>68.08315059240589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>76.94748099912351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2315.449754633589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3">
+        <v>49.85114036113452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>102.0391570728407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>146.2408298477399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>97.04754572435553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B7">
+        <v>164.7445278873959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>132.5892791210916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>173.5750807781629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>138.6433161874834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>109.5178694554061</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,9 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Total System Cost</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>crudeoil</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>CrOilopex</t>
+  </si>
+  <si>
+    <t>H2opex</t>
+  </si>
+  <si>
+    <t>BMopex</t>
+  </si>
+  <si>
+    <t>Kilometersopex</t>
+  </si>
+  <si>
+    <t>Refineryopex</t>
+  </si>
+  <si>
+    <t>RefineryTotalEff</t>
+  </si>
+  <si>
+    <t>MtGopex</t>
+  </si>
+  <si>
+    <t>MtGTotalEff</t>
+  </si>
+  <si>
+    <t>Gtkmopex</t>
+  </si>
+  <si>
+    <t>GtkmTotalEff</t>
+  </si>
+  <si>
+    <t>B2gasopex</t>
+  </si>
+  <si>
+    <t>B2gasTotalEff</t>
+  </si>
+  <si>
+    <t>GasHubopex</t>
+  </si>
+  <si>
+    <t>KmHubopex</t>
   </si>
 </sst>
 </file>
@@ -374,95 +425,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76.94748099912351</v>
+        <v>89.76330367398238</v>
+      </c>
+      <c r="C2">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D2">
+        <v>2515.565922971293</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.009593184099743147</v>
+      </c>
+      <c r="G2">
+        <v>0.03359924929753556</v>
+      </c>
+      <c r="H2">
+        <v>0.02712330684930081</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.9083301713430862</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8393132187520682</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.3834792511278912</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.5014963212342863</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49.85114036113452</v>
+        <v>159.6121613960446</v>
+      </c>
+      <c r="C3">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D3">
+        <v>2340.066895963945</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.0240511167533359</v>
+      </c>
+      <c r="G3">
+        <v>0.06259200320222152</v>
+      </c>
+      <c r="H3">
+        <v>0.02921956733254961</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.943031404594624</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8433247319912461</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.4018074915740261</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.4763978139591038</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>102.0391570728407</v>
+        <v>204.5351521568307</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2524.491274801826</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>0.03357751540721995</v>
+      </c>
+      <c r="G4">
+        <v>0.07549428810089714</v>
+      </c>
+      <c r="H4">
+        <v>0.0139504805487405</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.8974002424928506</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.8211517699504211</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.3937825643170712</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.46648203908921</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>146.2408298477399</v>
+        <v>99.63469372619464</v>
+      </c>
+      <c r="C5">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D5">
+        <v>2277.865007796378</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.01170398372286112</v>
+      </c>
+      <c r="G5">
+        <v>0.04093266013849767</v>
+      </c>
+      <c r="H5">
+        <v>0.02512672877236114</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.90784189705712</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8658110833546366</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.4051389052843082</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.5234251229582514</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97.04754572435553</v>
+        <v>112.1981862574339</v>
+      </c>
+      <c r="C6">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D6">
+        <v>2240.579972867133</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.02178791405829147</v>
+      </c>
+      <c r="G6">
+        <v>0.04476172397578676</v>
+      </c>
+      <c r="H6">
+        <v>0.03410438942073959</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.9227786854325505</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.8360559476312721</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.4206097321456089</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.562761902784114</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>164.7445278873959</v>
+        <v>184.4413902559322</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2269.257107971565</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>0.007722111657192525</v>
+      </c>
+      <c r="G7">
+        <v>0.07891332862302258</v>
+      </c>
+      <c r="H7">
+        <v>0.005366758364442233</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.9139686526111037</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.8248050609430652</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.4081453109215342</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.5784130286983944</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>132.5892791210916</v>
+        <v>161.9737737281883</v>
+      </c>
+      <c r="C8">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D8">
+        <v>2135.45591735711</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.03221984957766327</v>
+      </c>
+      <c r="G8">
+        <v>0.06760490693144799</v>
+      </c>
+      <c r="H8">
+        <v>0.0346546501019294</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.9023623865062289</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.8542749271177579</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.4315254083015325</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.5660620628112978</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>173.5750807781629</v>
+        <v>171.504759153921</v>
+      </c>
+      <c r="C9">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D9">
+        <v>2297.450528203048</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.02612087647534168</v>
+      </c>
+      <c r="G9">
+        <v>0.0684371890631784</v>
+      </c>
+      <c r="H9">
+        <v>0.02630181878754293</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.9056277005616411</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.8147972161559413</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.4225051920595571</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.4609425690849009</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>138.6433161874834</v>
+        <v>183.4492149122224</v>
+      </c>
+      <c r="C10">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D10">
+        <v>2048.196463346483</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.007163787159909664</v>
+      </c>
+      <c r="G10">
+        <v>0.08765495904947818</v>
+      </c>
+      <c r="H10">
+        <v>0.05284505106210957</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.9375961848594645</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.815267884722407</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.4582580865564485</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.5536392857362011</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>109.5178694554061</v>
+        <v>178.1232256873284</v>
+      </c>
+      <c r="C11">
+        <v>546.448087431694</v>
+      </c>
+      <c r="D11">
+        <v>2340.2063569377</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.01644606849524194</v>
+      </c>
+      <c r="G11">
+        <v>0.07227409775677124</v>
+      </c>
+      <c r="H11">
+        <v>0.03149507711992676</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.9453982591990508</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.8375477934730711</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.4037719175555546</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.5401707860582325</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Total Cost</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>KmHubopex</t>
+  </si>
+  <si>
+    <t>KilometersDemand</t>
   </si>
 </sst>
 </file>
@@ -425,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,31 +489,34 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>89.76330367398238</v>
+        <v>70.10661191017485</v>
       </c>
       <c r="C2">
         <v>546.448087431694</v>
       </c>
       <c r="D2">
-        <v>2515.565922971293</v>
+        <v>2160.481481104678</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.009593184099743147</v>
+        <v>0.0146697711719883</v>
       </c>
       <c r="G2">
-        <v>0.03359924929753556</v>
+        <v>0.0287391232247146</v>
       </c>
       <c r="H2">
-        <v>0.02712330684930081</v>
+        <v>0.01771822770231993</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -519,25 +525,25 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9083301713430862</v>
+        <v>0.898482110537456</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8393132187520682</v>
+        <v>0.8252649628029379</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3834792511278912</v>
+        <v>0.4372181129518334</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.5014963212342863</v>
+        <v>0.5866404293961521</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -545,31 +551,34 @@
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>994.2092860444217</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>159.6121613960446</v>
+        <v>79.22689102960678</v>
       </c>
       <c r="C3">
-        <v>546.448087431694</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2340.066895963945</v>
+        <v>3154.592854914126</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0240511167533359</v>
+        <v>0.02837055954968281</v>
       </c>
       <c r="G3">
-        <v>0.06259200320222152</v>
+        <v>0.02511477539999801</v>
       </c>
       <c r="H3">
-        <v>0.02921956733254961</v>
+        <v>0.01726372275010582</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -578,25 +587,25 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.943031404594624</v>
+        <v>0.9425024312613505</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8433247319912461</v>
+        <v>0.8466413585875031</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4018074915740261</v>
+        <v>0.3757752103957357</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.4763978139591038</v>
+        <v>0.49187075748033</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -604,31 +613,34 @@
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>1003.623731409744</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>204.5351521568307</v>
+        <v>191.7161782016296</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2524.491274801826</v>
+        <v>2441.218348746741</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4">
-        <v>0.03357751540721995</v>
+        <v>0.04397332062300463</v>
       </c>
       <c r="G4">
-        <v>0.07549428810089714</v>
+        <v>0.07699149437548028</v>
       </c>
       <c r="H4">
-        <v>0.0139504805487405</v>
+        <v>0.003763129434775726</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -637,25 +649,25 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8974002424928506</v>
+        <v>0.8950289765673765</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8211517699504211</v>
+        <v>0.8375408827080725</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3937825643170712</v>
+        <v>0.3889842022029329</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.46648203908921</v>
+        <v>0.5345833474196523</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -663,31 +675,34 @@
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>1003.269422811849</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99.63469372619464</v>
+        <v>115.0333062499625</v>
       </c>
       <c r="C5">
         <v>546.448087431694</v>
       </c>
       <c r="D5">
-        <v>2277.865007796378</v>
+        <v>2491.261454522022</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01170398372286112</v>
+        <v>0.03764343372184664</v>
       </c>
       <c r="G5">
-        <v>0.04093266013849767</v>
+        <v>0.03791778808154903</v>
       </c>
       <c r="H5">
-        <v>0.02512672877236114</v>
+        <v>0.02412984145219009</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -696,25 +711,25 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.90784189705712</v>
+        <v>0.878805781733572</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8658110833546366</v>
+        <v>0.8186341002493961</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4051389052843082</v>
+        <v>0.3913411912680678</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.5234251229582514</v>
+        <v>0.5161199717426285</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -722,31 +737,34 @@
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>986.0441310333435</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>112.1981862574339</v>
+        <v>122.8470698929063</v>
       </c>
       <c r="C6">
         <v>546.448087431694</v>
       </c>
       <c r="D6">
-        <v>2240.579972867133</v>
+        <v>2256.460035069343</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02178791405829147</v>
+        <v>0.003438876620532195</v>
       </c>
       <c r="G6">
-        <v>0.04476172397578676</v>
+        <v>0.05360959221995949</v>
       </c>
       <c r="H6">
-        <v>0.03410438942073959</v>
+        <v>0.04637188284100258</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -755,25 +773,25 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9227786854325505</v>
+        <v>0.9408705042323471</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8360559476312721</v>
+        <v>0.8285769919326229</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4206097321456089</v>
+        <v>0.4029016142316865</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.562761902784114</v>
+        <v>0.4529930399159297</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -781,31 +799,34 @@
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>960.4319348106823</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>184.4413902559322</v>
+        <v>159.4490488755924</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>546.448087431694</v>
       </c>
       <c r="D7">
-        <v>2269.257107971565</v>
+        <v>2464.227483210967</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.007722111657192525</v>
+        <v>0.01356197338627334</v>
       </c>
       <c r="G7">
-        <v>0.07891332862302258</v>
+        <v>0.06169809219835226</v>
       </c>
       <c r="H7">
-        <v>0.005366758364442233</v>
+        <v>0.037106438061745</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -814,25 +835,25 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9139686526111037</v>
+        <v>0.9012697027685009</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8248050609430652</v>
+        <v>0.8380057870548839</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4081453109215342</v>
+        <v>0.3900177158839919</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5784130286983944</v>
+        <v>0.3680741043713345</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -840,31 +861,34 @@
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>997.4835677620939</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>161.9737737281883</v>
+        <v>160.491790011684</v>
       </c>
       <c r="C8">
         <v>546.448087431694</v>
       </c>
       <c r="D8">
-        <v>2135.45591735711</v>
+        <v>2602.541797657739</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03221984957766327</v>
+        <v>0.01057115975040145</v>
       </c>
       <c r="G8">
-        <v>0.06760490693144799</v>
+        <v>0.05944772918666832</v>
       </c>
       <c r="H8">
-        <v>0.0346546501019294</v>
+        <v>0.01834855202294131</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -873,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9023623865062289</v>
+        <v>0.9305093065369203</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8542749271177579</v>
+        <v>0.8468116294527408</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4315254083015325</v>
+        <v>0.3644894726020976</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.5660620628112978</v>
+        <v>0.5018796285136933</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -899,31 +923,34 @@
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>988.6185346163203</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>171.504759153921</v>
+        <v>118.7740385122494</v>
       </c>
       <c r="C9">
         <v>546.448087431694</v>
       </c>
       <c r="D9">
-        <v>2297.450528203048</v>
+        <v>2083.32141899004</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02612087647534168</v>
+        <v>0.02262723273214044</v>
       </c>
       <c r="G9">
-        <v>0.0684371890631784</v>
+        <v>0.05107681872415298</v>
       </c>
       <c r="H9">
-        <v>0.02630181878754293</v>
+        <v>0.023017050732101</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -932,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9056277005616411</v>
+        <v>0.9400745853639163</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8147972161559413</v>
+        <v>0.847086054733817</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4225051920595571</v>
+        <v>0.4185477502696664</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.4609425690849009</v>
+        <v>0.562822020835404</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -958,31 +985,34 @@
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>953.641997018118</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>183.4492149122224</v>
+        <v>151.5955164858706</v>
       </c>
       <c r="C10">
-        <v>546.448087431694</v>
+        <v>546.4480874316939</v>
       </c>
       <c r="D10">
-        <v>2048.196463346483</v>
+        <v>2365.188086051659</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.007163787159909664</v>
+        <v>0.03489716639716593</v>
       </c>
       <c r="G10">
-        <v>0.08765495904947818</v>
+        <v>0.0560319187437591</v>
       </c>
       <c r="H10">
-        <v>0.05284505106210957</v>
+        <v>0.01759935038891854</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -991,25 +1021,25 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9375961848594645</v>
+        <v>0.9289774887010676</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.815267884722407</v>
+        <v>0.8304387518272505</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4582580865564485</v>
+        <v>0.4215582271372024</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.5536392857362011</v>
+        <v>0.442027644658124</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1017,31 +1047,34 @@
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>1041.999959373587</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>178.1232256873284</v>
+        <v>197.9227901979066</v>
       </c>
       <c r="C11">
-        <v>546.448087431694</v>
+        <v>546.4480874316939</v>
       </c>
       <c r="D11">
-        <v>2340.2063569377</v>
+        <v>2558.140953031314</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01644606849524194</v>
+        <v>0.007164692656490319</v>
       </c>
       <c r="G11">
-        <v>0.07227409775677124</v>
+        <v>0.07583931501852498</v>
       </c>
       <c r="H11">
-        <v>0.03149507711992676</v>
+        <v>0.03005382725445438</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1050,31 +1083,34 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9453982591990508</v>
+        <v>0.9166782033311098</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8375477934730711</v>
+        <v>0.8218428143829135</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4037719175555546</v>
+        <v>0.3799333758929527</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.5401707860582325</v>
+        <v>0.4992296965279395</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
+      </c>
+      <c r="T11">
+        <v>989.0831453509775</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,6 +40,9 @@
     <t>Kilometersopex</t>
   </si>
   <si>
+    <t>KilometersDemand</t>
+  </si>
+  <si>
     <t>Refineryopex</t>
   </si>
   <si>
@@ -68,16 +71,13 @@
   </si>
   <si>
     <t>KmHubopex</t>
-  </si>
-  <si>
-    <t>KilometersDemand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -218,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,14 +434,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,624 +520,624 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70.10661191017485</v>
+        <v>158.02588313103041</v>
       </c>
       <c r="C2">
-        <v>546.448087431694</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2160.481481104678</v>
+        <v>2481.1184299954439</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>999.99999999999977</v>
       </c>
       <c r="F2">
-        <v>0.0146697711719883</v>
+        <v>3.2201818214439272E-2</v>
       </c>
       <c r="G2">
-        <v>0.0287391232247146</v>
+        <v>6.2174504584578613E-2</v>
       </c>
       <c r="H2">
-        <v>0.01771822770231993</v>
+        <v>3.7635739303961552E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>984.18666278232513</v>
       </c>
       <c r="K2">
-        <v>0.898482110537456</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.89814655704936708</v>
       </c>
       <c r="M2">
-        <v>0.8252649628029379</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.83774938188002668</v>
       </c>
       <c r="O2">
-        <v>0.4372181129518334</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.38659735225763159</v>
       </c>
       <c r="Q2">
-        <v>0.5866404293961521</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.46721126139023389</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>994.2092860444217</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>79.22689102960678</v>
+        <v>110.3849719851686</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D3">
-        <v>3154.592854914126</v>
+        <v>2162.0139685574318</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02837055954968281</v>
+        <v>6.8734653534395342E-3</v>
       </c>
       <c r="G3">
-        <v>0.02511477539999801</v>
+        <v>4.931928356591516E-2</v>
       </c>
       <c r="H3">
-        <v>0.01726372275010582</v>
+        <v>1.7064393788532108E-2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>996.12709555098593</v>
       </c>
       <c r="K3">
-        <v>0.9425024312613505</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.91974331727384595</v>
       </c>
       <c r="M3">
-        <v>0.8466413585875031</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.83107966783797538</v>
       </c>
       <c r="O3">
-        <v>0.3757752103957357</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.43321215826018478</v>
       </c>
       <c r="Q3">
-        <v>0.49187075748033</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.52269482164210224</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1003.623731409744</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>191.7161782016296</v>
+        <v>124.3593793844814</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D4">
-        <v>2441.218348746741</v>
+        <v>2653.7813071409369</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.04397332062300463</v>
+        <v>1.7274492456431801E-2</v>
       </c>
       <c r="G4">
-        <v>0.07699149437548028</v>
+        <v>4.3304158376230473E-2</v>
       </c>
       <c r="H4">
-        <v>0.003763129434775726</v>
+        <v>3.768709715816157E-2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1000.006194004161</v>
       </c>
       <c r="K4">
-        <v>0.8950289765673765</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.93284418641239586</v>
       </c>
       <c r="M4">
-        <v>0.8375408827080725</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.83092504235018483</v>
       </c>
       <c r="O4">
-        <v>0.3889842022029329</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.36834753518694208</v>
       </c>
       <c r="Q4">
-        <v>0.5345833474196523</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.5339359156569512</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1003.269422811849</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>115.0333062499625</v>
+        <v>141.84372775527521</v>
       </c>
       <c r="C5">
-        <v>546.448087431694</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D5">
-        <v>2491.261454522022</v>
+        <v>2356.328596929176</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.03764343372184664</v>
+        <v>8.8068846397817476E-3</v>
       </c>
       <c r="G5">
-        <v>0.03791778808154903</v>
+        <v>5.8154547148567173E-2</v>
       </c>
       <c r="H5">
-        <v>0.02412984145219009</v>
+        <v>4.9943186974120819E-2</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>987.32632260977812</v>
       </c>
       <c r="K5">
-        <v>0.878805781733572</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.91400283819675132</v>
       </c>
       <c r="M5">
-        <v>0.8186341002493961</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.86377799808277245</v>
       </c>
       <c r="O5">
-        <v>0.3913411912680678</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.38950858494722301</v>
       </c>
       <c r="Q5">
-        <v>0.5161199717426285</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.50164226720664173</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>986.0441310333435</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>122.8470698929063</v>
+        <v>145.7292557456382</v>
       </c>
       <c r="C6">
-        <v>546.448087431694</v>
+        <v>546.44808743169392</v>
       </c>
       <c r="D6">
-        <v>2256.460035069343</v>
+        <v>2609.7460073553252</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.003438876620532195</v>
+        <v>3.0102794227942719E-2</v>
       </c>
       <c r="G6">
-        <v>0.05360959221995949</v>
+        <v>4.9537250387227921E-2</v>
       </c>
       <c r="H6">
-        <v>0.04637188284100258</v>
+        <v>1.553751704643268E-2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1000.017253009715</v>
       </c>
       <c r="K6">
-        <v>0.9408705042323471</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.9313166937594809</v>
       </c>
       <c r="M6">
-        <v>0.8285769919326229</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.86958509642500992</v>
       </c>
       <c r="O6">
-        <v>0.4029016142316865</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.35993692846630643</v>
       </c>
       <c r="Q6">
-        <v>0.4529930399159297</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.43833990872299428</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>960.4319348106823</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>159.4490488755924</v>
+        <v>127.8121957657857</v>
       </c>
       <c r="C7">
-        <v>546.448087431694</v>
+        <v>546.44808743169392</v>
       </c>
       <c r="D7">
-        <v>2464.227483210967</v>
+        <v>2304.9940745391709</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01356197338627334</v>
+        <v>1.2059145277301499E-3</v>
       </c>
       <c r="G7">
-        <v>0.06169809219835226</v>
+        <v>5.5164231215615027E-2</v>
       </c>
       <c r="H7">
-        <v>0.037106438061745</v>
+        <v>2.393140519025732E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>989.65705825662656</v>
       </c>
       <c r="K7">
-        <v>0.9012697027685009</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.92669351628895547</v>
       </c>
       <c r="M7">
-        <v>0.8380057870548839</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.83749787889039473</v>
       </c>
       <c r="O7">
-        <v>0.3900177158839919</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.40612685964624717</v>
       </c>
       <c r="Q7">
-        <v>0.3680741043713345</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.59679578345618634</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>997.4835677620939</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>160.491790011684</v>
+        <v>156.13050815920991</v>
       </c>
       <c r="C8">
-        <v>546.448087431694</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D8">
-        <v>2602.541797657739</v>
+        <v>2740.8561600601529</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.01057115975040145</v>
+        <v>7.3628105298367934E-3</v>
       </c>
       <c r="G8">
-        <v>0.05944772918666832</v>
+        <v>5.549620466902587E-2</v>
       </c>
       <c r="H8">
-        <v>0.01834855202294131</v>
+        <v>1.897901985493813E-2</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>986.80915201166783</v>
       </c>
       <c r="K8">
-        <v>0.9305093065369203</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.941356053461611</v>
       </c>
       <c r="M8">
-        <v>0.8468116294527408</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.83029750692830862</v>
       </c>
       <c r="O8">
-        <v>0.3644894726020976</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.35367877855158369</v>
       </c>
       <c r="Q8">
-        <v>0.5018796285136933</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.46571993186049199</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>988.6185346163203</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>118.7740385122494</v>
+        <v>83.146185300306243</v>
       </c>
       <c r="C9">
-        <v>546.448087431694</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D9">
-        <v>2083.32141899004</v>
+        <v>2908.2686214788132</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02262723273214044</v>
+        <v>5.8373519168102234E-3</v>
       </c>
       <c r="G9">
-        <v>0.05107681872415298</v>
+        <v>2.7492775226878079E-2</v>
       </c>
       <c r="H9">
-        <v>0.023017050732101</v>
+        <v>3.5621610521512949E-2</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>999.77371592987447</v>
       </c>
       <c r="K9">
-        <v>0.9400745853639163</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.94121767564033554</v>
       </c>
       <c r="M9">
-        <v>0.847086054733817</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.8556829790046292</v>
       </c>
       <c r="O9">
-        <v>0.4185477502696664</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.33293800111208371</v>
       </c>
       <c r="Q9">
-        <v>0.562822020835404</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.51779287579049083</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>953.641997018118</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>151.5955164858706</v>
+        <v>131.61946893487499</v>
       </c>
       <c r="C10">
-        <v>546.4480874316939</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D10">
-        <v>2365.188086051659</v>
+        <v>2441.1348789787298</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03489716639716593</v>
+        <v>2.6492232501088338E-3</v>
       </c>
       <c r="G10">
-        <v>0.0560319187437591</v>
+        <v>5.3324298906061267E-2</v>
       </c>
       <c r="H10">
-        <v>0.01759935038891854</v>
+        <v>2.3074266546190041E-2</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>990.80670025482425</v>
       </c>
       <c r="K10">
-        <v>0.9289774887010676</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.90428607900954106</v>
       </c>
       <c r="M10">
-        <v>0.8304387518272505</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.84200792976332195</v>
       </c>
       <c r="O10">
-        <v>0.4215582271372024</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.38861255660112992</v>
       </c>
       <c r="Q10">
-        <v>0.442027644658124</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.56568343834328805</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1041.999959373587</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>197.9227901979066</v>
+        <v>73.628174704552976</v>
       </c>
       <c r="C11">
-        <v>546.4480874316939</v>
+        <v>546.44808743169403</v>
       </c>
       <c r="D11">
-        <v>2558.140953031314</v>
+        <v>2643.581028045432</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.007164692656490319</v>
+        <v>2.9834028847180831E-3</v>
       </c>
       <c r="G11">
-        <v>0.07583931501852498</v>
+        <v>2.7234988880743029E-2</v>
       </c>
       <c r="H11">
-        <v>0.03005382725445438</v>
+        <v>1.989741273540744E-2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>992.58330459650449</v>
       </c>
       <c r="K11">
-        <v>0.9166782033311098</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9143952679391637</v>
       </c>
       <c r="M11">
-        <v>0.8218428143829135</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.83867069539297923</v>
       </c>
       <c r="O11">
-        <v>0.3799333758929527</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.36535506689531411</v>
       </c>
       <c r="Q11">
-        <v>0.4992296965279395</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.54700949288064826</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>989.0831453509775</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,23 +9,35 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Total Cost</t>
   </si>
   <si>
+    <t>CO2</t>
+  </si>
+  <si>
     <t>crudeoil</t>
   </si>
   <si>
+    <t>crudeoilisFixed</t>
+  </si>
+  <si>
     <t>hydrogen</t>
   </si>
   <si>
+    <t>hydrogenisFixed</t>
+  </si>
+  <si>
     <t>biomass</t>
+  </si>
+  <si>
+    <t>biomassisFixed</t>
   </si>
   <si>
     <t>CrOilopex</t>
@@ -76,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,11 +152,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,34 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,624 +504,756 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>158.02588313103041</v>
+        <v>142.1052469787612</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>2481.1184299954439</v>
+        <v>299.6185432382061</v>
       </c>
       <c r="E2">
-        <v>999.99999999999977</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3.2201818214439272E-2</v>
+        <v>2331.527522919538</v>
       </c>
       <c r="G2">
-        <v>6.2174504584578613E-2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.7635739303961552E-3</v>
+        <v>451.6980658740827</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>984.18666278232513</v>
+        <v>0.01801039543875801</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.05725911220616873</v>
       </c>
       <c r="L2">
-        <v>0.89814655704936708</v>
+        <v>0.007101652032599774</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.83774938188002668</v>
+        <v>1008.814133481471</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.38659735225763159</v>
+        <v>0.8925647231265397</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.46721126139023389</v>
+        <v>0.8393712457272334</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0.4088394506202646</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.5381044039117123</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>110.3849719851686</v>
+        <v>152.7668184955145</v>
       </c>
       <c r="C3">
-        <v>546.44808743169403</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>2162.0139685574318</v>
+        <v>318.7468652505768</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>6.8734653534395342E-3</v>
+        <v>2251.125158460799</v>
       </c>
       <c r="G3">
-        <v>4.931928356591516E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.7064393788532108E-2</v>
+        <v>416.6932365914445</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>996.12709555098593</v>
+        <v>0.0328267893212635</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.06026323755064458</v>
       </c>
       <c r="L3">
-        <v>0.91974331727384595</v>
+        <v>0.0159428844511786</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.83107966783797538</v>
+        <v>987.1993800094846</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.43321215826018478</v>
+        <v>0.9385773275681072</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.52269482164210224</v>
+        <v>0.8763350051709684</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
+        <v>0.3999423305823766</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.4714402486666512</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>124.3593793844814</v>
+        <v>76.68526393516498</v>
       </c>
       <c r="C4">
-        <v>546.44808743169403</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>2653.7813071409369</v>
+        <v>274.0782474382368</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.7274492456431801E-2</v>
+        <v>2315.105963816858</v>
       </c>
       <c r="G4">
-        <v>4.3304158376230473E-2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.768709715816157E-2</v>
+        <v>498.4368071880267</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1000.006194004161</v>
+        <v>0.02189308360034803</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.02872807297080343</v>
       </c>
       <c r="L4">
-        <v>0.93284418641239586</v>
+        <v>0.008378821200727365</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.83092504235018483</v>
+        <v>1000.181219449902</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.36834753518694208</v>
+        <v>0.9103280516386419</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.5339359156569512</v>
+        <v>0.8527566073779376</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
+        <v>0.4014274423591002</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.5373572311717681</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>141.84372775527521</v>
+        <v>235.6337785877942</v>
       </c>
       <c r="C5">
-        <v>546.44808743169403</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>2356.328596929176</v>
+        <v>306.6635659889823</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>8.8068846397817476E-3</v>
+        <v>2473.015297577263</v>
       </c>
       <c r="G5">
-        <v>5.8154547148567173E-2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.9943186974120819E-2</v>
+        <v>438.8056742401623</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>987.32632260977812</v>
+        <v>0.02059720015983101</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0880428009563029</v>
       </c>
       <c r="L5">
-        <v>0.91400283819675132</v>
+        <v>0.02640388402216336</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.86377799808277245</v>
+        <v>993.8426831326142</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.38950858494722301</v>
+        <v>0.9486929169007803</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.50164226720664173</v>
+        <v>0.8276534249705995</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0.3916551127727929</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.4553642168386667</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>145.7292557456382</v>
+        <v>215.8375839461366</v>
       </c>
       <c r="C6">
-        <v>546.44808743169392</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>2609.7460073553252</v>
+        <v>200.9980934701238</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3.0102794227942719E-2</v>
+        <v>2807.963851368183</v>
       </c>
       <c r="G6">
-        <v>4.9537250387227921E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.553751704643268E-2</v>
+        <v>632.1734889496735</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1000.017253009715</v>
+        <v>0.001742474469241586</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.07607796944387153</v>
       </c>
       <c r="L6">
-        <v>0.9313166937594809</v>
+        <v>0.00294723180990995</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.86958509642500992</v>
+        <v>1032.183213246396</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.35993692846630643</v>
+        <v>0.8965498170914989</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.43833990872299428</v>
+        <v>0.8543391809675589</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
+        <v>0.3559500506610618</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.5072018606864965</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>127.8121957657857</v>
+        <v>118.7568965394992</v>
       </c>
       <c r="C7">
-        <v>546.44808743169392</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>2304.9940745391709</v>
+        <v>277.870162738845</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.2059145277301499E-3</v>
+        <v>2016.537850784819</v>
       </c>
       <c r="G7">
-        <v>5.5164231215615027E-2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2.393140519025732E-2</v>
+        <v>491.4976021879136</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>989.65705825662656</v>
+        <v>0.008561312411175985</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.05553108447861208</v>
       </c>
       <c r="L7">
-        <v>0.92669351628895547</v>
+        <v>0.008947000963426429</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.83749787889039473</v>
+        <v>1007.366198062046</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.40612685964624717</v>
+        <v>0.9296550665682531</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.59679578345618634</v>
+        <v>0.8515429890072286</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
+        <v>0.453628978633341</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.4988651149439817</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>156.13050815920991</v>
+        <v>152.4087768130373</v>
       </c>
       <c r="C8">
-        <v>546.44808743169403</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>2740.8561600601529</v>
+        <v>255.6869950221711</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>7.3628105298367934E-3</v>
+        <v>2461.903123750991</v>
       </c>
       <c r="G8">
-        <v>5.549620466902587E-2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.897901985493813E-2</v>
+        <v>532.0927991094269</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>986.80915201166783</v>
+        <v>0.009453547031519485</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.05841055888686769</v>
       </c>
       <c r="L8">
-        <v>0.941356053461611</v>
+        <v>0.01163423073378877</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.83029750692830862</v>
+        <v>970.9989084780321</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.35367877855158369</v>
+        <v>0.9408127766109325</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.46571993186049199</v>
+        <v>0.813728555358663</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0.3947829280239535</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.4053846993533133</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>83.146185300306243</v>
+        <v>100.3279166735553</v>
       </c>
       <c r="C9">
-        <v>546.44808743169403</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>2908.2686214788132</v>
+        <v>315.521487601397</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>5.8373519168102234E-3</v>
+        <v>2311.771991198464</v>
       </c>
       <c r="G9">
-        <v>2.7492775226878079E-2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3.5621610521512949E-2</v>
+        <v>422.5956776894435</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>999.77371592987447</v>
+        <v>0.02628566483348665</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.03615792546424549</v>
       </c>
       <c r="L9">
-        <v>0.94121767564033554</v>
+        <v>0.01998445724952184</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8556829790046292</v>
+        <v>988.9558652373071</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.33293800111208371</v>
+        <v>0.9339846745525628</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.51779287579049083</v>
+        <v>0.8353229987581084</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0.3990573062256609</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0.5974070744547723</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>131.61946893487499</v>
+        <v>208.8641369693961</v>
       </c>
       <c r="C10">
-        <v>546.44808743169403</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>2441.1348789787298</v>
+        <v>334.9034205480102</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2.6492232501088338E-3</v>
+        <v>2380.716577148112</v>
       </c>
       <c r="G10">
-        <v>5.3324298906061267E-2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.3074266546190041E-2</v>
+        <v>387.1267403971412</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>990.80670025482425</v>
+        <v>0.01048598364004924</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.08605125750105641</v>
       </c>
       <c r="L10">
-        <v>0.90428607900954106</v>
+        <v>0.001262351349911792</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.84200792976332195</v>
+        <v>996.813952358781</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.38861255660112992</v>
+        <v>0.9371340642769294</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.56568343834328805</v>
+        <v>0.8403999780886622</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0.3999819745361534</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.4586188571689391</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73.628174704552976</v>
+        <v>102.8143695258487</v>
       </c>
       <c r="C11">
-        <v>546.44808743169403</v>
+        <v>21.15690723449927</v>
       </c>
       <c r="D11">
-        <v>2643.581028045432</v>
+        <v>289.0287873565474</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2.9834028847180831E-3</v>
+        <v>2561.812986715572</v>
       </c>
       <c r="G11">
-        <v>2.7234988880743029E-2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.989741273540744E-2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>992.58330459650449</v>
+        <v>0.02182843753205297</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.03767071335671462</v>
       </c>
       <c r="L11">
-        <v>0.9143952679391637</v>
+        <v>0.04105015767723433</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.83867069539297923</v>
+        <v>995.7631482690651</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.36535506689531411</v>
+        <v>0.9401627026961034</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.54700949288064826</v>
+        <v>0.8378349498338397</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0.4117938908705133</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0.5189382043254833</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Total Cost</t>
   </si>
@@ -61,22 +61,37 @@
     <t>RefineryTotalEff</t>
   </si>
   <si>
+    <t>Refinery-gasoline</t>
+  </si>
+  <si>
+    <t>Refinery-km</t>
+  </si>
+  <si>
     <t>MtGopex</t>
   </si>
   <si>
     <t>MtGTotalEff</t>
   </si>
   <si>
+    <t>MtG-gasoline</t>
+  </si>
+  <si>
+    <t>B2gasopex</t>
+  </si>
+  <si>
+    <t>B2gasTotalEff</t>
+  </si>
+  <si>
+    <t>B2gas-gasoline</t>
+  </si>
+  <si>
     <t>Gtkmopex</t>
   </si>
   <si>
     <t>GtkmTotalEff</t>
   </si>
   <si>
-    <t>B2gasopex</t>
-  </si>
-  <si>
-    <t>B2gasTotalEff</t>
+    <t>Gtkm-km</t>
   </si>
   <si>
     <t>GasHubopex</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,744 +531,909 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>142.1052469787612</v>
+        <v>145.8620424750275</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>24.12795879239154</v>
       </c>
       <c r="D2">
-        <v>299.6185432382061</v>
+        <v>329.616923393327</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2331.527522919538</v>
+        <v>2816.520842045401</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>451.6980658740827</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01801039543875801</v>
+        <v>0.014028679211575</v>
       </c>
       <c r="K2">
-        <v>0.05725911220616873</v>
+        <v>0.05014624791182692</v>
       </c>
       <c r="L2">
-        <v>0.007101652032599774</v>
+        <v>0.04877195807954137</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1008.814133481471</v>
+        <v>979.0187249532061</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8925647231265397</v>
+        <v>0.8870626299992788</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>292.0984641025979</v>
       </c>
       <c r="R2">
-        <v>0.8393712457272334</v>
+        <v>0.1461954274787777</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.4088394506202646</v>
+        <v>0.8329786587329684</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>2346.101753300429</v>
       </c>
       <c r="V2">
-        <v>0.5381044039117123</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.5283213260742617</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.3710379989617706</v>
+      </c>
+      <c r="AA2">
+        <v>978.8725295257273</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>152.7668184955145</v>
+        <v>75.18892136327152</v>
       </c>
       <c r="C3">
         <v>40</v>
       </c>
       <c r="D3">
-        <v>318.7468652505768</v>
+        <v>390.2731115987876</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2251.125158460799</v>
+        <v>2179.412189043648</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>416.6932365914445</v>
+        <v>285.8002057742187</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0328267893212635</v>
+        <v>0.001467405111490405</v>
       </c>
       <c r="K3">
-        <v>0.06026323755064458</v>
+        <v>0.03206914779836689</v>
       </c>
       <c r="L3">
-        <v>0.0159428844511786</v>
+        <v>0.01653022252952235</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>987.1993800094846</v>
+        <v>989.9426343696258</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9385773275681072</v>
+        <v>0.9280575578643128</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>361.8337149396268</v>
       </c>
       <c r="R3">
-        <v>0.8763350051709684</v>
+        <v>0.1810979554252386</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.3999423305823766</v>
+        <v>0.8212188984479827</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1789.774477150531</v>
       </c>
       <c r="V3">
-        <v>0.4714402486666512</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.4624227707518719</v>
       </c>
       <c r="X3">
+        <v>132.1605230355692</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0.4333895678046853</v>
+      </c>
+      <c r="AA3">
+        <v>989.7615364142006</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76.68526393516498</v>
+        <v>166.0449509395155</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>274.0782474382368</v>
+        <v>333.5350612908001</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2315.105963816858</v>
+        <v>2568.94433721117</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>498.4368071880267</v>
+        <v>389.6308378378359</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02189308360034803</v>
+        <v>0.01396003344996548</v>
       </c>
       <c r="K4">
-        <v>0.02872807297080343</v>
+        <v>0.05918397578040363</v>
       </c>
       <c r="L4">
-        <v>0.008378821200727365</v>
+        <v>0.02399309804204856</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1000.181219449902</v>
+        <v>989.1392756832992</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9103280516386419</v>
+        <v>0.9421562939632433</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>313.9279150952909</v>
       </c>
       <c r="R4">
-        <v>0.8527566073779376</v>
+        <v>0.1571210786262717</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.4014274423591002</v>
+        <v>0.822789303155954</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2113.699921060413</v>
       </c>
       <c r="V4">
-        <v>0.5373572311717681</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.5628996776315032</v>
       </c>
       <c r="X4">
+        <v>219.3230730142104</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.3736307126734053</v>
+      </c>
+      <c r="AA4">
+        <v>988.9821546046729</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>235.6337785877942</v>
+        <v>164.658234198897</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5">
-        <v>306.6635659889823</v>
+        <v>291.0951240841666</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2473.015297577263</v>
+        <v>2495.235677258024</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>438.8056742401623</v>
+        <v>467.2959229259749</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02059720015983101</v>
+        <v>0.01248242949934429</v>
       </c>
       <c r="K5">
-        <v>0.0880428009563029</v>
+        <v>0.06430596882595495</v>
       </c>
       <c r="L5">
-        <v>0.02640388402216336</v>
+        <v>0.001211463939603356</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>993.8426831326142</v>
+        <v>1015.362602977342</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9486929169007803</v>
+        <v>0.9277863761547354</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>269.8040162000716</v>
       </c>
       <c r="R5">
-        <v>0.8276534249705995</v>
+        <v>0.135037045145181</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.3916551127727929</v>
+        <v>0.8415663659009266</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2099.906420976373</v>
       </c>
       <c r="V5">
-        <v>0.4553642168386667</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.5122912175367222</v>
       </c>
       <c r="X5">
+        <v>239.3915973056942</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0.3891099514372583</v>
+      </c>
+      <c r="AA5">
+        <v>1015.227565932197</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>215.8375839461366</v>
+        <v>171.9664156053566</v>
       </c>
       <c r="C6">
         <v>40</v>
       </c>
       <c r="D6">
-        <v>200.9980934701238</v>
+        <v>291.909370923222</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2807.963851368183</v>
+        <v>2363.717672703871</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>632.1734889496735</v>
+        <v>465.8058512105036</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001742474469241586</v>
+        <v>0.02091012626972292</v>
       </c>
       <c r="K6">
-        <v>0.07607796944387153</v>
+        <v>0.06589207348089593</v>
       </c>
       <c r="L6">
-        <v>0.00294723180990995</v>
+        <v>0.02170924902695353</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1032.183213246396</v>
+        <v>998.6705953756284</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8965498170914989</v>
+        <v>0.9446726007928928</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>275.4830258412316</v>
       </c>
       <c r="R6">
-        <v>0.8543391809675589</v>
+        <v>0.1378793923129287</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.3559500506610618</v>
+        <v>0.8227869082623929</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1944.835955929197</v>
       </c>
       <c r="V6">
-        <v>0.5072018606864965</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.5370490679487279</v>
       </c>
       <c r="X6">
+        <v>250.1605982376648</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0.4041857799852951</v>
+      </c>
+      <c r="AA6">
+        <v>998.5327159833155</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>118.7568965394992</v>
+        <v>159.3668576390237</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7">
-        <v>277.870162738845</v>
+        <v>279.3284676361202</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2016.537850784819</v>
+        <v>2470.492016324709</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>491.4976021879136</v>
+        <v>488.8289042259</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.008561312411175985</v>
+        <v>0.00951712593234633</v>
       </c>
       <c r="K7">
-        <v>0.05553108447861208</v>
+        <v>0.05658343406475675</v>
       </c>
       <c r="L7">
-        <v>0.008947000963426429</v>
+        <v>0.03461237904828417</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1007.366198062046</v>
+        <v>1000.218219448921</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9296550665682531</v>
+        <v>0.9166462039983477</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>255.7893341477976</v>
       </c>
       <c r="R7">
-        <v>0.8515429890072286</v>
+        <v>0.1280226897636625</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.453628978633341</v>
+        <v>0.8355639882676629</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>2064.254162143694</v>
       </c>
       <c r="V7">
-        <v>0.4988651149439817</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.5538568575680402</v>
       </c>
       <c r="X7">
+        <v>270.7412407829852</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0.3860182524806991</v>
+      </c>
+      <c r="AA7">
+        <v>1000.090196759157</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>152.4087768130373</v>
+        <v>165.7288151529837</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>21.82561331024009</v>
       </c>
       <c r="D8">
-        <v>255.6869950221711</v>
+        <v>298.1641162601105</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2461.903123750991</v>
+        <v>2578.506393756364</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>532.0927991094269</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.009453547031519485</v>
+        <v>0.046872349121371</v>
       </c>
       <c r="K8">
-        <v>0.05841055888686769</v>
+        <v>0.05885312635548715</v>
       </c>
       <c r="L8">
-        <v>0.01163423073378877</v>
+        <v>0.0408011388190223</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>970.9989084780321</v>
+        <v>996.0863748800409</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9408127766109325</v>
+        <v>0.8968413436485037</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>267.1385007478316</v>
       </c>
       <c r="R8">
-        <v>0.813728555358663</v>
+        <v>0.1337029533272431</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.3947829280239535</v>
+        <v>0.8478755814941091</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>2186.252607992455</v>
       </c>
       <c r="V8">
-        <v>0.4053846993533133</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.5356691682654375</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0.4059494095248815</v>
+      </c>
+      <c r="AA8">
+        <v>995.9526719267137</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100.3279166735553</v>
+        <v>95.16940342584414</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9">
-        <v>315.521487601397</v>
+        <v>264.8536679659116</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2311.771991198464</v>
+        <v>2182.83436390863</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>422.5956776894435</v>
+        <v>515.3177876223818</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02628566483348665</v>
+        <v>0.02606388889867657</v>
       </c>
       <c r="K9">
-        <v>0.03615792546424549</v>
+        <v>0.03963769808703445</v>
       </c>
       <c r="L9">
-        <v>0.01998445724952184</v>
+        <v>0.003383848570422905</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>988.9558652373071</v>
+        <v>1002.758793064754</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9339846745525628</v>
+        <v>0.9334423896161448</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>246.9784150839768</v>
       </c>
       <c r="R9">
-        <v>0.8353229987581084</v>
+        <v>0.1236128203623508</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.3990573062256609</v>
+        <v>0.8652878331417447</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1888.780016853837</v>
       </c>
       <c r="V9">
-        <v>0.5974070744547723</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.5779152870105407</v>
       </c>
       <c r="X9">
+        <v>297.8100271354256</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.4120020443666578</v>
+      </c>
+      <c r="AA9">
+        <v>1002.635180244392</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>208.8641369693961</v>
+        <v>131.5415287974047</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="D10">
-        <v>334.9034205480102</v>
+        <v>296.4910604663992</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2380.716577148112</v>
+        <v>2187.268089317909</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>387.1267403971412</v>
+        <v>457.4213593464895</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01048598364004924</v>
+        <v>0.009351994581335716</v>
       </c>
       <c r="K10">
-        <v>0.08605125750105641</v>
+        <v>0.05419213510761991</v>
       </c>
       <c r="L10">
-        <v>0.001262351349911792</v>
+        <v>0.02237765680253914</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>996.813952358781</v>
+        <v>993.2067954237351</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9371340642769294</v>
+        <v>0.9119126474184127</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>270.1035739379209</v>
       </c>
       <c r="R10">
-        <v>0.8403999780886622</v>
+        <v>0.1351869739429034</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.3999819745361534</v>
+        <v>0.8698232942414507</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1902.536734839708</v>
       </c>
       <c r="V10">
-        <v>0.4586188571689391</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.5450470295004306</v>
       </c>
       <c r="X10">
+        <v>249.3161531418532</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.410028678906453</v>
+      </c>
+      <c r="AA10">
+        <v>993.0716084497922</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>102.8143695258487</v>
+        <v>102.4001388278409</v>
       </c>
       <c r="C11">
-        <v>21.15690723449927</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>289.0287873565474</v>
+        <v>311.0205671850397</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2561.812986715572</v>
+        <v>2300.901625518436</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>430.8323620513773</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02182843753205297</v>
+        <v>0.02209198340787805</v>
       </c>
       <c r="K11">
-        <v>0.03767071335671462</v>
+        <v>0.03756355071854477</v>
       </c>
       <c r="L11">
-        <v>0.04105015767723433</v>
+        <v>0.02111968252851739</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>995.7631482690651</v>
+        <v>1004.433346476786</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9401627026961034</v>
+        <v>0.9107731287250183</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>282.9859058978754</v>
       </c>
       <c r="R11">
-        <v>0.8378349498338397</v>
+        <v>0.1416345875364742</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.4117938908705133</v>
+        <v>0.850738753548603</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1957.466180931509</v>
       </c>
       <c r="V11">
-        <v>0.5189382043254833</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.5440958205147171</v>
       </c>
       <c r="X11">
+        <v>234.4140875346382</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.4057963708471334</v>
+      </c>
+      <c r="AA11">
+        <v>1004.291711889249</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -522,67 +522,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>142.1052469787612</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>299.6185432382061</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>2331.527522919538</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>451.6980658740827</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0.01801039543875801</v>
+        <v>0.06313584232034301</v>
       </c>
       <c r="K2">
-        <v>0.05725911220616873</v>
+        <v>0.0485201827700498</v>
       </c>
       <c r="L2">
-        <v>0.007101652032599774</v>
+        <v>0.03282828711956988</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1008.814133481471</v>
+        <v>1037.038442353979</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8925647231265397</v>
+        <v>0.9051765380291221</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8393712457272334</v>
+        <v>0.8367506100813272</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.4088394506202646</v>
+        <v>0.3697803381425155</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.5381044039117123</v>
+        <v>0.4748804363443177</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -596,67 +596,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>152.7668184955145</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>318.7468652505768</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2251.125158460799</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>416.6932365914445</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0328267893212635</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06026323755064458</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0159428844511786</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>987.1993800094846</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9385773275681072</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.8763350051709684</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.3999423305823766</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.4714402486666512</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -670,67 +670,67 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76.68526393516498</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>274.0782474382368</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2315.105963816858</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>498.4368071880267</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02189308360034803</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02872807297080343</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.008378821200727365</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1000.181219449902</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9103280516386419</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.8527566073779376</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.4014274423591002</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.5373572311717681</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -744,67 +744,67 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>235.6337785877942</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>306.6635659889823</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2473.015297577263</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>438.8056742401623</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02059720015983101</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0880428009563029</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02640388402216336</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>993.8426831326142</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9486929169007803</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.8276534249705995</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.3916551127727929</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.4553642168386667</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -818,67 +818,67 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>215.8375839461366</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>200.9980934701238</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2807.963851368183</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>632.1734889496735</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001742474469241586</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.07607796944387153</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00294723180990995</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1032.183213246396</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8965498170914989</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.8543391809675589</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.3559500506610618</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.5072018606864965</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -892,67 +892,67 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>118.7568965394992</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>277.870162738845</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2016.537850784819</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>491.4976021879136</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.008561312411175985</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05553108447861208</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.008947000963426429</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1007.366198062046</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9296550665682531</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.8515429890072286</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.453628978633341</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.4988651149439817</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -966,67 +966,67 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>152.4087768130373</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>255.6869950221711</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2461.903123750991</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>532.0927991094269</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.009453547031519485</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.05841055888686769</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01163423073378877</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>970.9989084780321</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9408127766109325</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.813728555358663</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.3947829280239535</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.4053846993533133</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1040,67 +1040,67 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100.3279166735553</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>315.521487601397</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2311.771991198464</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>422.5956776894435</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02628566483348665</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.03615792546424549</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01998445724952184</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>988.9558652373071</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9339846745525628</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.8353229987581084</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.3990573062256609</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.5974070744547723</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1114,67 +1114,67 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>208.8641369693961</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>334.9034205480102</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2380.716577148112</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>387.1267403971412</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01048598364004924</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.08605125750105641</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.001262351349911792</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>996.813952358781</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9371340642769294</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.8403999780886622</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.3999819745361534</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.4586188571689391</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1188,19 +1188,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>102.8143695258487</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>21.15690723449927</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>289.0287873565474</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2561.812986715572</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1212,43 +1212,43 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02182843753205297</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.03767071335671462</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.04105015767723433</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>995.7631482690651</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9401627026961034</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.8378349498338397</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.4117938908705133</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.5189382043254833</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Total Cost</t>
   </si>
@@ -61,22 +61,34 @@
     <t>RefineryTotalEff</t>
   </si>
   <si>
+    <t>Refinery-gasoline</t>
+  </si>
+  <si>
     <t>MtGopex</t>
   </si>
   <si>
     <t>MtGTotalEff</t>
   </si>
   <si>
+    <t>MtG-gasoline</t>
+  </si>
+  <si>
     <t>Gtkmopex</t>
   </si>
   <si>
     <t>GtkmTotalEff</t>
   </si>
   <si>
+    <t>Gtkm-km</t>
+  </si>
+  <si>
     <t>B2gasopex</t>
   </si>
   <si>
     <t>B2gasTotalEff</t>
+  </si>
+  <si>
+    <t>B2gas-gasoline</t>
   </si>
   <si>
     <t>GasHubopex</t>
@@ -440,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +528,20 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,43 +570,43 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.06313584232034301</v>
+        <v>0.02636863637906169</v>
       </c>
       <c r="K2">
-        <v>0.0485201827700498</v>
+        <v>0.04439102885697754</v>
       </c>
       <c r="L2">
-        <v>0.03282828711956988</v>
+        <v>0.01100675025172006</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1037.038442353979</v>
+        <v>991.4865685876285</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9051765380291221</v>
+        <v>0.9418154091969867</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8367506100813272</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.8221410261342013</v>
       </c>
       <c r="T2">
-        <v>0.3697803381425155</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.4748804363443177</v>
+        <v>0.3777241406725803</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -590,8 +614,20 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0.4496802112792493</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -664,8 +700,20 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -738,8 +786,20 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -812,8 +872,20 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -886,8 +958,20 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -960,8 +1044,20 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1034,8 +1130,20 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1108,8 +1216,20 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1182,8 +1302,20 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1254,6 +1386,18 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -546,19 +546,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>195.0069102805903</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>16.37240170114682</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>223.6666899063773</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3046.395281440311</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -567,55 +567,55 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02636863637906169</v>
+        <v>0.02452288890473963</v>
       </c>
       <c r="K2">
-        <v>0.04439102885697754</v>
+        <v>0.06221187317580171</v>
       </c>
       <c r="L2">
-        <v>0.01100675025172006</v>
+        <v>0.06004362877703256</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>991.4865685876285</v>
+        <v>1001.546187016945</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9418154091969867</v>
+        <v>0.8941876865246061</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.8221410261342013</v>
+        <v>0.8296150187497769</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2527.335278531336</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.3777241406725803</v>
+        <v>0.3672251794272522</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1001.546187016945</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.4496802112792493</v>
+        <v>0.4767301622731319</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -632,19 +632,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>114.0607491686329</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>15.55963215570908</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>212.5632808156979</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2997.150922555896</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -656,52 +656,52 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00526963314993755</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.03768265982457567</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02434972138313655</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>996.9122513350209</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.9408962791339733</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.8157821215605918</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2445.022138239934</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.3769012882434292</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>996.9122513350209</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.4460531942133563</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -718,79 +718,79 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>141.8694817229864</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>212.352668818627</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2430.081564951446</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>611.3946160619125</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0257223262103678</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.05169881595332022</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01762354008841846</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>974.7074151959887</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.9418294628113313</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.8209452698122482</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1994.963966004835</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.3981169233047824</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>974.7074151959887</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.414348410058319</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>253.3303870834698</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -804,79 +804,79 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>150.8817711372159</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>217.3042912822645</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2508.232377046967</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>602.333146953456</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.004488578146070251</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.05323732373615354</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02718562786190657</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1006.086638669547</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.920368386743972</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.8251549975806217</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2069.680481013827</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.3931873223339269</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1006.086638669547</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.4799947824479487</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>289.1167678331124</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -890,79 +890,79 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>206.0151730223007</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>217.1579832821567</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2736.594889309589</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>602.6008905936533</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02448315454606691</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.06858679466424583</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02158010219928313</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1023.739735273847</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.9209884756580047</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.8519370354569534</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2331.406537245061</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.3578591399661504</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1023.739735273847</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.5465097415581022</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>329.3272569810197</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -976,79 +976,79 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>210.3943289132366</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>210.8931742376801</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2524.48167866078</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>614.0654911450455</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03039519206980118</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.075024350053667</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.02375413277980732</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1020.5778852583</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.9483474309822694</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.8620282240290101</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2176.174458049726</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.3882416450517856</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1020.5778852583</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.4112651881553938</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>252.5437597555014</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1062,79 +1062,79 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>135.7438825309016</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>225.9532802531134</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2263.920682801419</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>586.5054971368027</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01834521704604285</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.05343249263847207</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.01812735839037085</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1012.381961101153</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.8851387321129374</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.8470047133927943</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1917.551489080235</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.4166699619360318</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1012.381961101153</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.5322132588149023</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>312.1460019440321</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>112.0608846513275</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1160,37 +1160,37 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2064.293057906641</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02297127951841579</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.05276057339089033</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.003147599269338761</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1016.571325306001</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.9015562974029467</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1199,28 +1199,28 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.8578027257244812</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1770.756211766441</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.4354257695562926</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1016.571325306001</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.5639042433138978</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>563.9042433138977</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1234,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>131.3777617639103</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>16.33907086210717</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>223.2113505752345</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2601.679498268624</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1258,52 +1258,52 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02856099409530397</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.04804689577686777</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03233245612175138</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1002.420838364033</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.8960117820378897</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.8420504339628174</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2190.74535054926</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.4192921835584589</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1002.420838364033</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.4832423747172801</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>157.207514328091</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1332,37 +1332,37 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2114.213088858497</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02625684770907999</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.06612645055040436</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01740210705467193</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1030.005553117358</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.9388372227906356</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1371,28 +1371,28 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.8475389390374807</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1791.877918230285</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.4375480352361826</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1030.005553117358</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.5621620274899031</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>562.162027489903</v>
       </c>
       <c r="AA11">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -546,49 +546,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>195.0069102805903</v>
+        <v>121.7744789210046</v>
       </c>
       <c r="C2">
-        <v>16.37240170114682</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>223.6666899063773</v>
+        <v>212.815665118663</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3046.395281440311</v>
+        <v>2102.493658644074</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>610.5473328328467</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02452288890473963</v>
+        <v>0.002348093274886724</v>
       </c>
       <c r="K2">
-        <v>0.06221187317580171</v>
+        <v>0.05205780726319665</v>
       </c>
       <c r="L2">
-        <v>0.06004362877703256</v>
+        <v>0.01936550632414199</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1001.546187016945</v>
+        <v>1011.226663093531</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8941876865246061</v>
+        <v>0.93978044280003</v>
       </c>
       <c r="Q2">
         <v>200</v>
@@ -597,28 +597,28 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.8296150187497769</v>
+        <v>0.8275679403271208</v>
       </c>
       <c r="T2">
-        <v>2527.335278531336</v>
+        <v>1739.956346634909</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.3672251794272522</v>
+        <v>0.4429960375016347</v>
       </c>
       <c r="W2">
-        <v>1001.546187016945</v>
+        <v>1011.226663093531</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.4767301622731319</v>
+        <v>0.5613696935541674</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>342.7427691326894</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -632,49 +632,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>114.0607491686329</v>
+        <v>210.6375000841791</v>
       </c>
       <c r="C3">
-        <v>15.55963215570908</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>212.5632808156979</v>
+        <v>216.8082181648471</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2997.150922555896</v>
+        <v>2406.135090620478</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>603.2409607583298</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00526963314993755</v>
+        <v>0.02220982661171617</v>
       </c>
       <c r="K3">
-        <v>0.03768265982457567</v>
+        <v>0.08055904135278205</v>
       </c>
       <c r="L3">
-        <v>0.02434972138313655</v>
+        <v>0.01986982261615612</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>996.9122513350209</v>
+        <v>994.5797031875584</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9408962791339733</v>
+        <v>0.9224742571701446</v>
       </c>
       <c r="Q3">
         <v>200</v>
@@ -683,28 +683,28 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.8157821215605918</v>
+        <v>0.8330705843437558</v>
       </c>
       <c r="T3">
-        <v>2445.022138239934</v>
+        <v>2004.480365953217</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.3769012882434292</v>
+        <v>0.3932621536389742</v>
       </c>
       <c r="W3">
-        <v>996.9122513350209</v>
+        <v>994.5797031875584</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.4460531942133563</v>
+        <v>0.5380433214428376</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>324.5697701567802</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -718,49 +718,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>141.8694817229864</v>
+        <v>99.04886500521728</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>212.352668818627</v>
+        <v>216.9987957756236</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2430.081564951446</v>
+        <v>1941.622773228155</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>611.3946160619125</v>
+        <v>602.8922037306088</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0257223262103678</v>
+        <v>0.0113203468964704</v>
       </c>
       <c r="K4">
-        <v>0.05169881595332022</v>
+        <v>0.04469268339914839</v>
       </c>
       <c r="L4">
-        <v>0.01762354008841846</v>
+        <v>0.01628156976606811</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>974.7074151959887</v>
+        <v>1008.049311634372</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9418294628113313</v>
+        <v>0.9216641008773141</v>
       </c>
       <c r="Q4">
         <v>200</v>
@@ -769,28 +769,28 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.8209452698122482</v>
+        <v>0.8433294465746841</v>
       </c>
       <c r="T4">
-        <v>1994.963966004835</v>
+        <v>1637.427658803304</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.3981169233047824</v>
+        <v>0.4798330029566718</v>
       </c>
       <c r="W4">
-        <v>974.7074151959887</v>
+        <v>1008.049311634372</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.414348410058319</v>
+        <v>0.4369039344566191</v>
       </c>
       <c r="Z4">
-        <v>253.3303870834698</v>
+        <v>263.4059758631246</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -804,49 +804,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>150.8817711372159</v>
+        <v>94.44367166706512</v>
       </c>
       <c r="C5">
-        <v>40.00000000000001</v>
+        <v>16.09663463598934</v>
       </c>
       <c r="D5">
-        <v>217.3042912822645</v>
+        <v>219.8993802730784</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2508.232377046967</v>
+        <v>2853.159315040723</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>602.333146953456</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.004488578146070251</v>
+        <v>0.008552758480979165</v>
       </c>
       <c r="K5">
-        <v>0.05323732373615354</v>
+        <v>0.03244225616477758</v>
       </c>
       <c r="L5">
-        <v>0.02718562786190657</v>
+        <v>0.03804039643536632</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1006.086638669547</v>
+        <v>1013.306053125703</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.920368386743972</v>
+        <v>0.9095068833374305</v>
       </c>
       <c r="Q5">
         <v>200</v>
@@ -855,28 +855,28 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.8251549975806217</v>
+        <v>0.840365493926777</v>
       </c>
       <c r="T5">
-        <v>2069.680481013827</v>
+        <v>2397.696637035982</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.3931873223339269</v>
+        <v>0.3900786714964157</v>
       </c>
       <c r="W5">
-        <v>1006.086638669547</v>
+        <v>1013.306053125703</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.4799947824479487</v>
+        <v>0.5162579709204294</v>
       </c>
       <c r="Z5">
-        <v>289.1167678331124</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -890,49 +890,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>206.0151730223007</v>
+        <v>131.3991036849226</v>
       </c>
       <c r="C6">
-        <v>40.00000000000001</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>217.1579832821567</v>
+        <v>216.4676429633167</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2736.594889309589</v>
+        <v>2482.269757635597</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>602.6008905936533</v>
+        <v>603.8642133771305</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02448315454606691</v>
+        <v>0.02171922704753687</v>
       </c>
       <c r="K6">
-        <v>0.06858679466424583</v>
+        <v>0.04876516460272357</v>
       </c>
       <c r="L6">
-        <v>0.02158010219928313</v>
+        <v>0.009355249664325332</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1023.739735273847</v>
+        <v>988.7071353895649</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9209884756580047</v>
+        <v>0.9239256142955861</v>
       </c>
       <c r="Q6">
         <v>200</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.8519370354569534</v>
+        <v>0.8337761221893575</v>
       </c>
       <c r="T6">
-        <v>2331.406537245061</v>
+        <v>2069.657252749324</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.3578591399661504</v>
+        <v>0.3904080811222203</v>
       </c>
       <c r="W6">
-        <v>1023.739735273847</v>
+        <v>988.7071353895649</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.5465097415581022</v>
+        <v>0.4352623232209656</v>
       </c>
       <c r="Z6">
-        <v>329.3272569810197</v>
+        <v>262.8393404245307</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -976,79 +976,79 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>210.3943289132366</v>
+        <v>132.6946672458907</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="D7">
-        <v>210.8931742376801</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2524.48167866078</v>
+        <v>2148.750086759504</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>614.0654911450455</v>
+        <v>1000</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03039519206980118</v>
+        <v>0.01038766567243881</v>
       </c>
       <c r="K7">
-        <v>0.075024350053667</v>
+        <v>0.05864246512268719</v>
       </c>
       <c r="L7">
-        <v>0.02375413277980732</v>
+        <v>0.006686665225725419</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1020.5778852583</v>
+        <v>1015.651705141702</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9483474309822694</v>
+        <v>0.9414457470998366</v>
       </c>
       <c r="Q7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.8620282240290101</v>
+        <v>0.8287895735837484</v>
       </c>
       <c r="T7">
-        <v>2176.174458049726</v>
+        <v>1780.861668143451</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.3882416450517856</v>
+        <v>0.4385542201385005</v>
       </c>
       <c r="W7">
-        <v>1020.5778852583</v>
+        <v>1015.651705141702</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.4112651881553938</v>
+        <v>0.5350474224610067</v>
       </c>
       <c r="Z7">
-        <v>252.5437597555014</v>
+        <v>535.0474224610067</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1062,49 +1062,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>135.7438825309016</v>
+        <v>84.26707576041001</v>
       </c>
       <c r="C8">
-        <v>40.00000000000001</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>225.9532802531134</v>
+        <v>215.0116188266796</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2263.920682801419</v>
+        <v>1932.703289267768</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>586.5054971368027</v>
+        <v>606.5287375471762</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01834521704604285</v>
+        <v>0.02160526545129312</v>
       </c>
       <c r="K8">
-        <v>0.05343249263847207</v>
+        <v>0.03613067964798337</v>
       </c>
       <c r="L8">
-        <v>0.01812735839037085</v>
+        <v>0.01614401537016744</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1012.381961101153</v>
+        <v>990.6938417686193</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8851387321129374</v>
+        <v>0.930182290107864</v>
       </c>
       <c r="Q8">
         <v>200</v>
@@ -1113,28 +1113,28 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.8470047133927943</v>
+        <v>0.8602370220641031</v>
       </c>
       <c r="T8">
-        <v>1917.551489080235</v>
+        <v>1662.582922093202</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.4166699619360318</v>
+        <v>0.451632929765607</v>
       </c>
       <c r="W8">
-        <v>1012.381961101153</v>
+        <v>990.6938417686193</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.5322132588149023</v>
+        <v>0.5457268637451181</v>
       </c>
       <c r="Z8">
-        <v>312.1460019440321</v>
+        <v>330.9990257129064</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1148,79 +1148,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>112.0608846513275</v>
+        <v>95.81084823624377</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>219.5232869633142</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2064.293057906641</v>
+        <v>2235.171936789313</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>598.2723848571351</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02297127951841579</v>
+        <v>0.00310669693234989</v>
       </c>
       <c r="K9">
-        <v>0.05276057339089033</v>
+        <v>0.04007753794520412</v>
       </c>
       <c r="L9">
-        <v>0.003147599269338761</v>
+        <v>0.009274484237896724</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1016.571325306001</v>
+        <v>989.6338231384073</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9015562974029467</v>
+        <v>0.911065075448798</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.8578027257244812</v>
+        <v>0.8480620151444597</v>
       </c>
       <c r="T9">
-        <v>1770.756211766441</v>
+        <v>1895.56441690789</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.4354257695562926</v>
+        <v>0.4102260702268819</v>
       </c>
       <c r="W9">
-        <v>1016.571325306001</v>
+        <v>989.6338231384073</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.5639042433138978</v>
+        <v>0.5296023049271085</v>
       </c>
       <c r="Z9">
-        <v>563.9042433138977</v>
+        <v>316.8464339945768</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1234,49 +1234,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>131.3777617639103</v>
+        <v>165.5847935824491</v>
       </c>
       <c r="C10">
-        <v>16.33907086210717</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>223.2113505752345</v>
+        <v>217.9593461984611</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2601.679498268624</v>
+        <v>2550.877625225707</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>601.1343964568161</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02856099409530397</v>
+        <v>0.03112316767652012</v>
       </c>
       <c r="K10">
-        <v>0.04804689577686777</v>
+        <v>0.05450283808351926</v>
       </c>
       <c r="L10">
-        <v>0.03233245612175138</v>
+        <v>0.03288971358490739</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1002.420838364033</v>
+        <v>983.6246111427911</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8960117820378897</v>
+        <v>0.9176023120288297</v>
       </c>
       <c r="Q10">
         <v>200</v>
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.8420504339628174</v>
+        <v>0.843787696727783</v>
       </c>
       <c r="T10">
-        <v>2190.74535054926</v>
+        <v>2152.399156023636</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.4192921835584589</v>
+        <v>0.3645456662837667</v>
       </c>
       <c r="W10">
-        <v>1002.420838364033</v>
+        <v>983.6246111427911</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.4832423747172801</v>
+        <v>0.5752813416454232</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>345.821402102889</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1320,79 +1320,79 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>157.207514328091</v>
+        <v>87.87486582850033</v>
       </c>
       <c r="C11">
         <v>40</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>224.2148775141743</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2114.213088858497</v>
+        <v>2640.103597130349</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>589.6867741490611</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02625684770907999</v>
+        <v>0.02329551994717612</v>
       </c>
       <c r="K11">
-        <v>0.06612645055040436</v>
+        <v>0.0286362862600064</v>
       </c>
       <c r="L11">
-        <v>0.01740210705467193</v>
+        <v>0.01195363644299093</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1030.005553117358</v>
+        <v>983.9256373026786</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9388372227906356</v>
+        <v>0.8920014684902277</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.8475389390374807</v>
+        <v>0.8449113856185803</v>
       </c>
       <c r="T11">
-        <v>1791.877918230285</v>
+        <v>2230.653588428001</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.4375480352361826</v>
+        <v>0.3644502356478774</v>
       </c>
       <c r="W11">
-        <v>1030.005553117358</v>
+        <v>983.9256373026786</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.5621620274899031</v>
+        <v>0.4563430603566268</v>
       </c>
       <c r="Z11">
-        <v>562.162027489903</v>
+        <v>269.0994671670095</v>
       </c>
       <c r="AA11">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -546,79 +546,79 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>195.0069102805903</v>
+        <v>0.0008407767361524817</v>
       </c>
       <c r="C2">
-        <v>16.37240170114682</v>
+        <v>0.00999999</v>
       </c>
       <c r="D2">
-        <v>223.6666899063773</v>
+        <v>0.00999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3046.395281440311</v>
+        <v>0.00999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02452288890473963</v>
+        <v>0.002942209448842503</v>
       </c>
       <c r="K2">
-        <v>0.06221187317580171</v>
+        <v>0.05453722682246739</v>
       </c>
       <c r="L2">
-        <v>0.06004362877703256</v>
+        <v>0.02659832142169598</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1001.546187016945</v>
+        <v>989.0641561766812</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8941876865246061</v>
+        <v>0.9302289132752822</v>
       </c>
       <c r="Q2">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.8296150187497769</v>
+        <v>0.8578124242961173</v>
       </c>
       <c r="T2">
-        <v>2527.335278531336</v>
+        <v>0.00999999</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.3672251794272522</v>
+        <v>0.4627176258650118</v>
       </c>
       <c r="W2">
-        <v>1001.546187016945</v>
+        <v>0.00999999</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.4767301622731319</v>
+        <v>0.4708379546660023</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -632,79 +632,79 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>114.0607491686329</v>
+        <v>0.0008698306078830272</v>
       </c>
       <c r="C3">
-        <v>15.55963215570908</v>
+        <v>0.00999999</v>
       </c>
       <c r="D3">
-        <v>212.5632808156979</v>
+        <v>0.00999999</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2997.150922555896</v>
+        <v>0.00999999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00526963314993755</v>
+        <v>0.008519318182797051</v>
       </c>
       <c r="K3">
-        <v>0.03768265982457567</v>
+        <v>0.06214261988710894</v>
       </c>
       <c r="L3">
-        <v>0.02434972138313655</v>
+        <v>0.01632120970154449</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>996.9122513350209</v>
+        <v>999.5946072104163</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9408962791339733</v>
+        <v>0.9453990189227494</v>
       </c>
       <c r="Q3">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.8157821215605918</v>
+        <v>0.8461894449430177</v>
       </c>
       <c r="T3">
-        <v>2445.022138239934</v>
+        <v>0.00999999</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.3769012882434292</v>
+        <v>0.390583050591964</v>
       </c>
       <c r="W3">
-        <v>996.9122513350209</v>
+        <v>0.00999999</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.4460531942133563</v>
+        <v>0.4742425369659101</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -718,79 +718,79 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>141.8694817229864</v>
+        <v>0.0005631281290117674</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>0.00999999</v>
       </c>
       <c r="D4">
-        <v>212.352668818627</v>
+        <v>0.00999999</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2430.081564951446</v>
+        <v>0.00999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>611.3946160619125</v>
+        <v>0.00999999</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0257223262103678</v>
+        <v>0.01311187350688162</v>
       </c>
       <c r="K4">
-        <v>0.05169881595332022</v>
+        <v>0.03372627677742594</v>
       </c>
       <c r="L4">
-        <v>0.01762354008841846</v>
+        <v>0.009474718929738396</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>974.7074151959887</v>
+        <v>992.3605072727597</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9418294628113313</v>
+        <v>0.9305693702780024</v>
       </c>
       <c r="Q4">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.8209452698122482</v>
+        <v>0.8397960673070415</v>
       </c>
       <c r="T4">
-        <v>1994.963966004835</v>
+        <v>0.00999999</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.3981169233047824</v>
+        <v>0.4570263727840671</v>
       </c>
       <c r="W4">
-        <v>974.7074151959887</v>
+        <v>0.00999999</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.414348410058319</v>
+        <v>0.4976897318300076</v>
       </c>
       <c r="Z4">
-        <v>253.3303870834698</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -804,79 +804,79 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>150.8817711372159</v>
+        <v>0.001256242409092629</v>
       </c>
       <c r="C5">
-        <v>40.00000000000001</v>
+        <v>0.00999999</v>
       </c>
       <c r="D5">
-        <v>217.3042912822645</v>
+        <v>0.00999999</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2508.232377046967</v>
+        <v>0.00999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>602.333146953456</v>
+        <v>0.00999999</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.004488578146070251</v>
+        <v>0.03387880421067874</v>
       </c>
       <c r="K5">
-        <v>0.05323732373615354</v>
+        <v>0.04972937091648252</v>
       </c>
       <c r="L5">
-        <v>0.02718562786190657</v>
+        <v>0.04201619140646812</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1006.086638669547</v>
+        <v>985.3774149017509</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.920368386743972</v>
+        <v>0.9277409654166023</v>
       </c>
       <c r="Q5">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.8251549975806217</v>
+        <v>0.8274810872665389</v>
       </c>
       <c r="T5">
-        <v>2069.680481013827</v>
+        <v>0.00999999</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.3931873223339269</v>
+        <v>0.4325976247301739</v>
       </c>
       <c r="W5">
-        <v>1006.086638669547</v>
+        <v>0.00999999</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.4799947824479487</v>
+        <v>0.4792050233490445</v>
       </c>
       <c r="Z5">
-        <v>289.1167678331124</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -890,79 +890,79 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>206.0151730223007</v>
+        <v>0.0006142913417921537</v>
       </c>
       <c r="C6">
-        <v>40.00000000000001</v>
+        <v>0.00999999</v>
       </c>
       <c r="D6">
-        <v>217.1579832821567</v>
+        <v>0.00999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2736.594889309589</v>
+        <v>0.00999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>602.6008905936533</v>
+        <v>0.00999999</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02448315454606691</v>
+        <v>0.02047658557504146</v>
       </c>
       <c r="K6">
-        <v>0.06858679466424583</v>
+        <v>0.02086544593420282</v>
       </c>
       <c r="L6">
-        <v>0.02158010219928313</v>
+        <v>0.02008716409916671</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1023.739735273847</v>
+        <v>963.780305448121</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9209884756580047</v>
+        <v>0.9339514320391672</v>
       </c>
       <c r="Q6">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.8519370354569534</v>
+        <v>0.8260008120408158</v>
       </c>
       <c r="T6">
-        <v>2331.406537245061</v>
+        <v>0.00999999</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.3578591399661504</v>
+        <v>0.4440610267180243</v>
       </c>
       <c r="W6">
-        <v>1023.739735273847</v>
+        <v>0.00999999</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.5465097415581022</v>
+        <v>0.5806926542812648</v>
       </c>
       <c r="Z6">
-        <v>329.3272569810197</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -976,79 +976,79 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>210.3943289132366</v>
+        <v>0.0007413336272968116</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>0.00999999</v>
       </c>
       <c r="D7">
-        <v>210.8931742376801</v>
+        <v>0.00999999</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2524.48167866078</v>
+        <v>0.00999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>614.0654911450455</v>
+        <v>0.00999999</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03039519206980118</v>
+        <v>0.0161245161508551</v>
       </c>
       <c r="K7">
-        <v>0.075024350053667</v>
+        <v>0.05132643852667483</v>
       </c>
       <c r="L7">
-        <v>0.02375413277980732</v>
+        <v>0.00668248218558809</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1020.5778852583</v>
+        <v>1007.392638696611</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9483474309822694</v>
+        <v>0.9178902022031743</v>
       </c>
       <c r="Q7">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.8620282240290101</v>
+        <v>0.819921609303279</v>
       </c>
       <c r="T7">
-        <v>2176.174458049726</v>
+        <v>0.00999999</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.3882416450517856</v>
+        <v>0.3567122463085622</v>
       </c>
       <c r="W7">
-        <v>1020.5778852583</v>
+        <v>0.00999999</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.4112651881553938</v>
+        <v>0.5881152372711553</v>
       </c>
       <c r="Z7">
-        <v>252.5437597555014</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1062,79 +1062,79 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>135.7438825309016</v>
+        <v>0.001043390649704075</v>
       </c>
       <c r="C8">
-        <v>40.00000000000001</v>
+        <v>0.00999999</v>
       </c>
       <c r="D8">
-        <v>225.9532802531134</v>
+        <v>0.00999999</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2263.920682801419</v>
+        <v>0.00999999</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>586.5054971368027</v>
+        <v>0.00999999</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01834521704604285</v>
+        <v>0.01961371895013996</v>
       </c>
       <c r="K8">
-        <v>0.05343249263847207</v>
+        <v>0.03911845383678664</v>
       </c>
       <c r="L8">
-        <v>0.01812735839037085</v>
+        <v>0.0456069965226502</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1012.381961101153</v>
+        <v>1006.546682444541</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8851387321129374</v>
+        <v>0.9189024810141637</v>
       </c>
       <c r="Q8">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.8470047133927943</v>
+        <v>0.8599605879895562</v>
       </c>
       <c r="T8">
-        <v>1917.551489080235</v>
+        <v>0.00999999</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.4166699619360318</v>
+        <v>0.4309944859799551</v>
       </c>
       <c r="W8">
-        <v>1012.381961101153</v>
+        <v>0.00999999</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.5322132588149023</v>
+        <v>0.4927104146159</v>
       </c>
       <c r="Z8">
-        <v>312.1460019440321</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1148,79 +1148,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>112.0608846513275</v>
+        <v>0.0008123996085566535</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>0.00999999</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2064.293057906641</v>
+        <v>0.00999999</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>0.00999999</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02297127951841579</v>
+        <v>0.005659871018233177</v>
       </c>
       <c r="K9">
-        <v>0.05276057339089033</v>
+        <v>0.06091886459295771</v>
       </c>
       <c r="L9">
-        <v>0.003147599269338761</v>
+        <v>0.01466130648451656</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1016.571325306001</v>
+        <v>1001.952762502176</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9015562974029467</v>
+        <v>0.9127648967685222</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.8578027257244812</v>
+        <v>0.8324422715207481</v>
       </c>
       <c r="T9">
-        <v>1770.756211766441</v>
+        <v>0.00999999</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.4354257695562926</v>
+        <v>0.4099450628785138</v>
       </c>
       <c r="W9">
-        <v>1016.571325306001</v>
+        <v>0.00999999</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.5639042433138978</v>
+        <v>0.4821355336844517</v>
       </c>
       <c r="Z9">
-        <v>563.9042433138977</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1234,79 +1234,79 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>131.3777617639103</v>
+        <v>0.00115202979110107</v>
       </c>
       <c r="C10">
-        <v>16.33907086210717</v>
+        <v>0.00999999</v>
       </c>
       <c r="D10">
-        <v>223.2113505752345</v>
+        <v>0.00999999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2601.679498268624</v>
+        <v>0.00999999</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02856099409530397</v>
+        <v>0.037043120563288</v>
       </c>
       <c r="K10">
-        <v>0.04804689577686777</v>
+        <v>0.03351394978129035</v>
       </c>
       <c r="L10">
-        <v>0.03233245612175138</v>
+        <v>0.04464602396862292</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1002.420838364033</v>
+        <v>995.5152369105721</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8960117820378897</v>
+        <v>0.9260394361298609</v>
       </c>
       <c r="Q10">
-        <v>200</v>
+        <v>0.00999999</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.8420504339628174</v>
+        <v>0.8479242908672455</v>
       </c>
       <c r="T10">
-        <v>2190.74535054926</v>
+        <v>0.00999999</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.4192921835584589</v>
+        <v>0.3781451774989963</v>
       </c>
       <c r="W10">
-        <v>1002.420838364033</v>
+        <v>0.00999999</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.4832423747172801</v>
+        <v>0.5205832443001981</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1320,79 +1320,79 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>157.207514328091</v>
+        <v>0.0009377143774610566</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>0.00999999</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2114.213088858497</v>
+        <v>0.00999999</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>0.00999999</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02625684770907999</v>
+        <v>0.009188135366662653</v>
       </c>
       <c r="K11">
-        <v>0.06612645055040436</v>
+        <v>0.03364838690466343</v>
       </c>
       <c r="L11">
-        <v>0.01740210705467193</v>
+        <v>0.0509350092463111</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1030.005553117358</v>
+        <v>1011.893356404593</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9388372227906356</v>
+        <v>0.8964748208202329</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.00999999</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.8475389390374807</v>
+        <v>0.8558902279923287</v>
       </c>
       <c r="T11">
-        <v>1791.877918230285</v>
+        <v>0.00999999</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.4375480352361826</v>
+        <v>0.373036763409751</v>
       </c>
       <c r="W11">
-        <v>1030.005553117358</v>
+        <v>0.00999999</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.5621620274899031</v>
+        <v>0.5098468443350546</v>
       </c>
       <c r="Z11">
-        <v>562.162027489903</v>
+        <v>0.00999999</v>
       </c>
       <c r="AA11">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Total Cost</t>
   </si>
@@ -28,31 +28,55 @@
     <t>crudeoilisFixed</t>
   </si>
   <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>biomassisFixed</t>
+  </si>
+  <si>
     <t>hydrogen</t>
   </si>
   <si>
     <t>hydrogenisFixed</t>
   </si>
   <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>biomassisFixed</t>
-  </si>
-  <si>
     <t>CrOilopex</t>
   </si>
   <si>
+    <t>BMopex</t>
+  </si>
+  <si>
     <t>H2opex</t>
   </si>
   <si>
-    <t>BMopex</t>
-  </si>
-  <si>
-    <t>Kilometersopex</t>
-  </si>
-  <si>
-    <t>KilometersDemand</t>
+    <t>pkmopex</t>
+  </si>
+  <si>
+    <t>pkmDemand</t>
+  </si>
+  <si>
+    <t>tkm-N1opex</t>
+  </si>
+  <si>
+    <t>tkm-N1Demand</t>
+  </si>
+  <si>
+    <t>tkm-N2opex</t>
+  </si>
+  <si>
+    <t>tkm-N2Demand</t>
+  </si>
+  <si>
+    <t>tkm-N3opex</t>
+  </si>
+  <si>
+    <t>tkm-N3Demand</t>
+  </si>
+  <si>
+    <t>tkm-SZMopex</t>
+  </si>
+  <si>
+    <t>tkm-SZMDemand</t>
   </si>
   <si>
     <t>Refineryopex</t>
@@ -64,37 +88,70 @@
     <t>Refinery-gasoline</t>
   </si>
   <si>
-    <t>MtGopex</t>
-  </si>
-  <si>
-    <t>MtGTotalEff</t>
-  </si>
-  <si>
-    <t>MtG-gasoline</t>
-  </si>
-  <si>
-    <t>Gtkmopex</t>
-  </si>
-  <si>
-    <t>GtkmTotalEff</t>
-  </si>
-  <si>
-    <t>Gtkm-km</t>
-  </si>
-  <si>
-    <t>B2gasopex</t>
-  </si>
-  <si>
-    <t>B2gasTotalEff</t>
-  </si>
-  <si>
-    <t>B2gas-gasoline</t>
-  </si>
-  <si>
-    <t>GasHubopex</t>
-  </si>
-  <si>
-    <t>KmHubopex</t>
+    <t>BtLopex</t>
+  </si>
+  <si>
+    <t>BtLTotalEff</t>
+  </si>
+  <si>
+    <t>BtL-gasoline</t>
+  </si>
+  <si>
+    <t>PtFopex</t>
+  </si>
+  <si>
+    <t>PtFTotalEff</t>
+  </si>
+  <si>
+    <t>PtF-gasoline</t>
+  </si>
+  <si>
+    <t>PVGasopex</t>
+  </si>
+  <si>
+    <t>PVGasTotalEff</t>
+  </si>
+  <si>
+    <t>PVGas-pkm</t>
+  </si>
+  <si>
+    <t>TruckN1opex</t>
+  </si>
+  <si>
+    <t>TruckN1TotalEff</t>
+  </si>
+  <si>
+    <t>TruckN1-tkm</t>
+  </si>
+  <si>
+    <t>TruckN2opex</t>
+  </si>
+  <si>
+    <t>TruckN2TotalEff</t>
+  </si>
+  <si>
+    <t>TruckN2-tkm</t>
+  </si>
+  <si>
+    <t>TruckN3opex</t>
+  </si>
+  <si>
+    <t>TruckN3TotalEff</t>
+  </si>
+  <si>
+    <t>TruckN3-tkm</t>
+  </si>
+  <si>
+    <t>TruckSZMopex</t>
+  </si>
+  <si>
+    <t>TruckSZMTotalEff</t>
+  </si>
+  <si>
+    <t>TruckSZM-tkm</t>
+  </si>
+  <si>
+    <t>GasolineHubopex</t>
   </si>
 </sst>
 </file>
@@ -452,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,865 +597,1492 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:47">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>195.0069102805903</v>
+        <v>50.65279408778376</v>
       </c>
       <c r="C2">
-        <v>16.37240170114682</v>
+        <v>87.214</v>
       </c>
       <c r="D2">
-        <v>223.6666899063773</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3046.395281440311</v>
+        <v>374.2759834101722</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>359.1124984951078</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02452288890473963</v>
+        <v>0.01475787322310782</v>
       </c>
       <c r="K2">
-        <v>0.06221187317580171</v>
+        <v>0.0203427661869472</v>
       </c>
       <c r="L2">
-        <v>0.06004362877703256</v>
+        <v>0.05855443636739431</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1001.546187016945</v>
+        <v>783.4465881306367</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8941876865246061</v>
+        <v>7.345137187741994</v>
       </c>
       <c r="Q2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>25.43179097833912</v>
       </c>
       <c r="S2">
-        <v>0.8296150187497769</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2527.335278531336</v>
+        <v>142.2403289464583</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.3672251794272522</v>
+        <v>373.6473522211476</v>
       </c>
       <c r="W2">
-        <v>1001.546187016945</v>
+        <v>0.0009830646736358672</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.8800725360335373</v>
       </c>
       <c r="Y2">
-        <v>0.4767301622731319</v>
+        <v>1048.560739858319</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.001005864420746661</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.5792896544968527</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>216.8142051161484</v>
+      </c>
+      <c r="AC2">
+        <v>0.0009903537166161083</v>
+      </c>
+      <c r="AD2">
+        <v>0.8536080071749805</v>
+      </c>
+      <c r="AE2">
+        <v>306.5413041920372</v>
+      </c>
+      <c r="AF2">
+        <v>0.0009868264096665532</v>
+      </c>
+      <c r="AG2">
+        <v>0.7715425193594709</v>
+      </c>
+      <c r="AH2">
+        <v>783.4465881306367</v>
+      </c>
+      <c r="AI2">
+        <v>0.0009132638528228959</v>
+      </c>
+      <c r="AJ2">
+        <v>0.09032674943043213</v>
+      </c>
+      <c r="AK2">
+        <v>7.345137187741994</v>
+      </c>
+      <c r="AL2">
+        <v>0.00101566371438263</v>
+      </c>
+      <c r="AM2">
+        <v>0.6709223565974975</v>
+      </c>
+      <c r="AN2">
+        <v>25.43179097833912</v>
+      </c>
+      <c r="AO2">
+        <v>0.001000097077365026</v>
+      </c>
+      <c r="AP2">
+        <v>0.7316848480173527</v>
+      </c>
+      <c r="AQ2">
+        <v>142.2403289464583</v>
+      </c>
+      <c r="AR2">
+        <v>0.001014967190232501</v>
+      </c>
+      <c r="AS2">
+        <v>1.538510058661554</v>
+      </c>
+      <c r="AT2">
+        <v>373.6473522211476</v>
+      </c>
+      <c r="AU2">
+        <v>0.0009850935408002937</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:47">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>114.0607491686329</v>
+        <v>51.15385303259033</v>
       </c>
       <c r="C3">
-        <v>15.55963215570908</v>
+        <v>87.214</v>
       </c>
       <c r="D3">
-        <v>212.5632808156979</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2997.150922555896</v>
+        <v>438.5782611872339</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>406.3339270316613</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00526963314993755</v>
+        <v>0.01125988604939569</v>
       </c>
       <c r="K3">
-        <v>0.03768265982457567</v>
+        <v>0.02180254395803763</v>
       </c>
       <c r="L3">
-        <v>0.02434972138313655</v>
+        <v>0.05790170560198902</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>996.9122513350209</v>
+        <v>810.1106977677603</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9408962791339733</v>
+        <v>7.555324509894382</v>
       </c>
       <c r="Q3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>23.83470549660388</v>
       </c>
       <c r="S3">
-        <v>0.8157821215605918</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2445.022138239934</v>
+        <v>136.5375956331139</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.3769012882434292</v>
+        <v>402.7186062647406</v>
       </c>
       <c r="W3">
-        <v>996.9122513350209</v>
+        <v>0.001006098383632638</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.919454015204679</v>
       </c>
       <c r="Y3">
-        <v>0.4460531942133563</v>
+        <v>1095.481727897006</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.001014328997725894</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.5157895173272117</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>226.2140696479711</v>
+      </c>
+      <c r="AC3">
+        <v>0.001009489259034009</v>
+      </c>
+      <c r="AD3">
+        <v>0.82079055134718</v>
+      </c>
+      <c r="AE3">
+        <v>333.5150479993821</v>
+      </c>
+      <c r="AF3">
+        <v>0.001057439405047357</v>
+      </c>
+      <c r="AG3">
+        <v>0.7522945548464084</v>
+      </c>
+      <c r="AH3">
+        <v>810.1106977677603</v>
+      </c>
+      <c r="AI3">
+        <v>0.001039646359199623</v>
+      </c>
+      <c r="AJ3">
+        <v>0.09320770903075891</v>
+      </c>
+      <c r="AK3">
+        <v>7.555324509894382</v>
+      </c>
+      <c r="AL3">
+        <v>0.0009580226647493663</v>
+      </c>
+      <c r="AM3">
+        <v>0.7030003564524384</v>
+      </c>
+      <c r="AN3">
+        <v>23.83470549660388</v>
+      </c>
+      <c r="AO3">
+        <v>0.001005717176854196</v>
+      </c>
+      <c r="AP3">
+        <v>0.6798285743351693</v>
+      </c>
+      <c r="AQ3">
+        <v>136.5375956331139</v>
+      </c>
+      <c r="AR3">
+        <v>0.0009692514542182688</v>
+      </c>
+      <c r="AS3">
+        <v>1.533854675514795</v>
+      </c>
+      <c r="AT3">
+        <v>402.7186062647406</v>
+      </c>
+      <c r="AU3">
+        <v>0.0009457710647533524</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:47">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>141.8694817229864</v>
+        <v>58.75152361365635</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>87.214</v>
       </c>
       <c r="D4">
-        <v>212.352668818627</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2430.081564951446</v>
+        <v>477.5470311294487</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>611.3946160619125</v>
+        <v>392.2769501232968</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0257223262103678</v>
+        <v>0.01510317947133272</v>
       </c>
       <c r="K4">
-        <v>0.05169881595332022</v>
+        <v>0.02148223590639553</v>
       </c>
       <c r="L4">
-        <v>0.01762354008841846</v>
+        <v>0.06575237849945714</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>974.7074151959887</v>
+        <v>783.7439153763551</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9418294628113313</v>
+        <v>7.343709972730048</v>
       </c>
       <c r="Q4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>24.30110966827727</v>
       </c>
       <c r="S4">
-        <v>0.8209452698122482</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1994.963966004835</v>
+        <v>139.7607099214158</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.3981169233047824</v>
+        <v>436.8891142439347</v>
       </c>
       <c r="W4">
-        <v>974.7074151959887</v>
+        <v>0.001032505877115831</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.8850914606115179</v>
       </c>
       <c r="Y4">
-        <v>0.414348410058319</v>
+        <v>1054.540527947717</v>
       </c>
       <c r="Z4">
-        <v>253.3303870834698</v>
+        <v>0.001012074944444517</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.5440057898436271</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>259.7883498570549</v>
+      </c>
+      <c r="AC4">
+        <v>0.0009909534647141562</v>
+      </c>
+      <c r="AD4">
+        <v>0.835968550296717</v>
+      </c>
+      <c r="AE4">
+        <v>327.93119330939</v>
+      </c>
+      <c r="AF4">
+        <v>0.0009961461477473589</v>
+      </c>
+      <c r="AG4">
+        <v>0.7499356331816321</v>
+      </c>
+      <c r="AH4">
+        <v>783.7439153763551</v>
+      </c>
+      <c r="AI4">
+        <v>0.00107255626344705</v>
+      </c>
+      <c r="AJ4">
+        <v>0.08689663911798301</v>
+      </c>
+      <c r="AK4">
+        <v>7.343709972730048</v>
+      </c>
+      <c r="AL4">
+        <v>0.001008153227708984</v>
+      </c>
+      <c r="AM4">
+        <v>0.7274519841712569</v>
+      </c>
+      <c r="AN4">
+        <v>24.30110966827727</v>
+      </c>
+      <c r="AO4">
+        <v>0.0009215900585888941</v>
+      </c>
+      <c r="AP4">
+        <v>0.7332432952188154</v>
+      </c>
+      <c r="AQ4">
+        <v>139.7607099214158</v>
+      </c>
+      <c r="AR4">
+        <v>0.0009906324710083866</v>
+      </c>
+      <c r="AS4">
+        <v>1.513530451433301</v>
+      </c>
+      <c r="AT4">
+        <v>436.8891142439347</v>
+      </c>
+      <c r="AU4">
+        <v>0.001006869650238699</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:47">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>150.8817711372159</v>
+        <v>44.3162008700269</v>
       </c>
       <c r="C5">
-        <v>40.00000000000001</v>
+        <v>87.214</v>
       </c>
       <c r="D5">
-        <v>217.3042912822645</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2508.232377046967</v>
+        <v>401.0078007154165</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>602.333146953456</v>
+        <v>394.5008544934704</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.004488578146070251</v>
+        <v>0.01110998457007553</v>
       </c>
       <c r="K5">
-        <v>0.05323732373615354</v>
+        <v>0.01784519053610196</v>
       </c>
       <c r="L5">
-        <v>0.02718562786190657</v>
+        <v>0.04871502652641338</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1006.086638669547</v>
+        <v>847.3684334843954</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.920368386743972</v>
+        <v>6.813988844688937</v>
       </c>
       <c r="Q5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>23.07567306500946</v>
       </c>
       <c r="S5">
-        <v>0.8251549975806217</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2069.680481013827</v>
+        <v>135.9297460815253</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.3931873223339269</v>
+        <v>396.3796971259734</v>
       </c>
       <c r="W5">
-        <v>1006.086638669547</v>
+        <v>0.0009863628176116537</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.9343378337146833</v>
       </c>
       <c r="Y5">
-        <v>0.4799947824479487</v>
+        <v>1113.215024994431</v>
       </c>
       <c r="Z5">
-        <v>289.1167678331124</v>
+        <v>0.001001371432442743</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.5757260886187295</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>230.8706526114857</v>
+      </c>
+      <c r="AC5">
+        <v>0.0009267247776294179</v>
+      </c>
+      <c r="AD5">
+        <v>0.8313027865652756</v>
+      </c>
+      <c r="AE5">
+        <v>327.9496596428042</v>
+      </c>
+      <c r="AF5">
+        <v>0.001022830214631784</v>
+      </c>
+      <c r="AG5">
+        <v>0.7666602591355739</v>
+      </c>
+      <c r="AH5">
+        <v>847.3684334843954</v>
+      </c>
+      <c r="AI5">
+        <v>0.000997069277726531</v>
+      </c>
+      <c r="AJ5">
+        <v>0.09280854746348774</v>
+      </c>
+      <c r="AK5">
+        <v>6.813988844688937</v>
+      </c>
+      <c r="AL5">
+        <v>0.0009986073261168871</v>
+      </c>
+      <c r="AM5">
+        <v>0.6712990739100362</v>
+      </c>
+      <c r="AN5">
+        <v>23.07567306500946</v>
+      </c>
+      <c r="AO5">
+        <v>0.001027701950493976</v>
+      </c>
+      <c r="AP5">
+        <v>0.6831419136351066</v>
+      </c>
+      <c r="AQ5">
+        <v>135.9297460815253</v>
+      </c>
+      <c r="AR5">
+        <v>0.000924311324409617</v>
+      </c>
+      <c r="AS5">
+        <v>1.524589412832937</v>
+      </c>
+      <c r="AT5">
+        <v>396.3796971259734</v>
+      </c>
+      <c r="AU5">
+        <v>0.0009983553600029678</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:47">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>206.0151730223007</v>
+        <v>45.95939047799975</v>
       </c>
       <c r="C6">
-        <v>40.00000000000001</v>
+        <v>87.214</v>
       </c>
       <c r="D6">
-        <v>217.1579832821567</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2736.594889309589</v>
+        <v>460.9250435856857</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>602.6008905936533</v>
+        <v>300.2645649807592</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02448315454606691</v>
+        <v>0.01407921040440113</v>
       </c>
       <c r="K6">
-        <v>0.06858679466424583</v>
+        <v>0.01932741815975501</v>
       </c>
       <c r="L6">
-        <v>0.02158010219928313</v>
+        <v>0.05243497296553258</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1023.739735273847</v>
+        <v>840.8303663142593</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9209884756580047</v>
+        <v>6.645193084119613</v>
       </c>
       <c r="Q6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>23.97695704452947</v>
       </c>
       <c r="S6">
-        <v>0.8519370354569534</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2331.406537245061</v>
+        <v>133.0792624580232</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.3578591399661504</v>
+        <v>395.9352036974083</v>
       </c>
       <c r="W6">
-        <v>1023.739735273847</v>
+        <v>0.001019834045140801</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.9065786653088185</v>
       </c>
       <c r="Y6">
-        <v>0.5465097415581022</v>
+        <v>1080.141416888569</v>
       </c>
       <c r="Z6">
-        <v>329.3272569810197</v>
+        <v>0.0009529149204701522</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.58495132441805</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>269.6187147028942</v>
+      </c>
+      <c r="AC6">
+        <v>0.001074612510402867</v>
+      </c>
+      <c r="AD6">
+        <v>0.8407396488025246</v>
+      </c>
+      <c r="AE6">
+        <v>252.4443249097663</v>
+      </c>
+      <c r="AF6">
+        <v>0.001005102682113206</v>
+      </c>
+      <c r="AG6">
+        <v>0.7969219309250919</v>
+      </c>
+      <c r="AH6">
+        <v>840.8303663142593</v>
+      </c>
+      <c r="AI6">
+        <v>0.0009985253881129763</v>
+      </c>
+      <c r="AJ6">
+        <v>0.08986962461651138</v>
+      </c>
+      <c r="AK6">
+        <v>6.645193084119613</v>
+      </c>
+      <c r="AL6">
+        <v>0.0009357288174986679</v>
+      </c>
+      <c r="AM6">
+        <v>0.6639316228737717</v>
+      </c>
+      <c r="AN6">
+        <v>23.97695704452947</v>
+      </c>
+      <c r="AO6">
+        <v>0.001014306150903405</v>
+      </c>
+      <c r="AP6">
+        <v>0.7475753862711156</v>
+      </c>
+      <c r="AQ6">
+        <v>133.0792624580232</v>
+      </c>
+      <c r="AR6">
+        <v>0.001004310234417036</v>
+      </c>
+      <c r="AS6">
+        <v>1.528493552734909</v>
+      </c>
+      <c r="AT6">
+        <v>395.9352036974083</v>
+      </c>
+      <c r="AU6">
+        <v>0.0009332773791933069</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:47">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>210.3943289132366</v>
+        <v>70.58845531722582</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>87.214</v>
       </c>
       <c r="D7">
-        <v>210.8931742376801</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2524.48167866078</v>
+        <v>366.9980233757007</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>614.0654911450455</v>
+        <v>531.2499278184276</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03039519206980118</v>
+        <v>0.02371242683400905</v>
       </c>
       <c r="K7">
-        <v>0.075024350053667</v>
+        <v>0.02435388141572016</v>
       </c>
       <c r="L7">
-        <v>0.02375413277980732</v>
+        <v>0.05343484118509217</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1020.5778852583</v>
+        <v>894.0297347468836</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9483474309822694</v>
+        <v>7.145856447487077</v>
       </c>
       <c r="Q7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>25.68223180169851</v>
       </c>
       <c r="S7">
-        <v>0.8620282240290101</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2176.174458049726</v>
+        <v>121.2244351777575</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.3882416450517856</v>
+        <v>421.5895437709969</v>
       </c>
       <c r="W7">
-        <v>1020.5778852583</v>
+        <v>0.001057239450686824</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.8709649390460759</v>
       </c>
       <c r="Y7">
-        <v>0.4112651881553938</v>
+        <v>1037.709510846509</v>
       </c>
       <c r="Z7">
-        <v>252.5437597555014</v>
+        <v>0.001023759272078818</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.5172976401812307</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>189.8472114434261</v>
+      </c>
+      <c r="AC7">
+        <v>0.0009608213271865435</v>
+      </c>
+      <c r="AD7">
+        <v>0.8401415337808827</v>
+      </c>
+      <c r="AE7">
+        <v>446.325129178357</v>
+      </c>
+      <c r="AF7">
+        <v>0.001021482422399449</v>
+      </c>
+      <c r="AG7">
+        <v>0.8061913073782917</v>
+      </c>
+      <c r="AH7">
+        <v>894.0297347468836</v>
+      </c>
+      <c r="AI7">
+        <v>0.001017061417243658</v>
+      </c>
+      <c r="AJ7">
+        <v>0.08701500553846572</v>
+      </c>
+      <c r="AK7">
+        <v>7.145856447487077</v>
+      </c>
+      <c r="AL7">
+        <v>0.001028407417897459</v>
+      </c>
+      <c r="AM7">
+        <v>0.6856710510303476</v>
+      </c>
+      <c r="AN7">
+        <v>25.68223180169851</v>
+      </c>
+      <c r="AO7">
+        <v>0.001004540127450609</v>
+      </c>
+      <c r="AP7">
+        <v>0.7029095053156813</v>
+      </c>
+      <c r="AQ7">
+        <v>121.2244351777575</v>
+      </c>
+      <c r="AR7">
+        <v>0.001092482075697843</v>
+      </c>
+      <c r="AS7">
+        <v>1.544915826120429</v>
+      </c>
+      <c r="AT7">
+        <v>421.5895437709969</v>
+      </c>
+      <c r="AU7">
+        <v>0.001052448720872387</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:47">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>135.7438825309016</v>
+        <v>47.68227272263036</v>
       </c>
       <c r="C8">
-        <v>40.00000000000001</v>
+        <v>87.214</v>
       </c>
       <c r="D8">
-        <v>225.9532802531134</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2263.920682801419</v>
+        <v>426.9627040573264</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>586.5054971368027</v>
+        <v>339.7057696112413</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01834521704604285</v>
+        <v>0.01339391813084892</v>
       </c>
       <c r="K8">
-        <v>0.05343249263847207</v>
+        <v>0.01890479479699839</v>
       </c>
       <c r="L8">
-        <v>0.01812735839037085</v>
+        <v>0.05600811164230464</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1012.381961101153</v>
+        <v>826.14999595373</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8851387321129374</v>
+        <v>8.236033613965819</v>
       </c>
       <c r="Q8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>24.76926383211076</v>
       </c>
       <c r="S8">
-        <v>0.8470047133927943</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1917.551489080235</v>
+        <v>131.8485173711319</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.4166699619360318</v>
+        <v>393.5544063109834</v>
       </c>
       <c r="W8">
-        <v>1012.381961101153</v>
+        <v>0.001005822937733735</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.9351954562130279</v>
       </c>
       <c r="Y8">
-        <v>0.5322132588149023</v>
+        <v>1114.236837679823</v>
       </c>
       <c r="Z8">
-        <v>312.1460019440321</v>
+        <v>0.0009936216137475923</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.5413044732500558</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>231.1168216171705</v>
+      </c>
+      <c r="AC8">
+        <v>0.0009598532025838741</v>
+      </c>
+      <c r="AD8">
+        <v>0.8122689861416583</v>
+      </c>
+      <c r="AE8">
+        <v>275.9324610685948</v>
+      </c>
+      <c r="AF8">
+        <v>0.001045850252387096</v>
+      </c>
+      <c r="AG8">
+        <v>0.7955760645395131</v>
+      </c>
+      <c r="AH8">
+        <v>826.14999595373</v>
+      </c>
+      <c r="AI8">
+        <v>0.0009806340677379094</v>
+      </c>
+      <c r="AJ8">
+        <v>0.09111662038704296</v>
+      </c>
+      <c r="AK8">
+        <v>8.236033613965819</v>
+      </c>
+      <c r="AL8">
+        <v>0.001042767559797475</v>
+      </c>
+      <c r="AM8">
+        <v>0.6844916947881554</v>
+      </c>
+      <c r="AN8">
+        <v>24.76926383211076</v>
+      </c>
+      <c r="AO8">
+        <v>0.0009787750534889176</v>
+      </c>
+      <c r="AP8">
+        <v>0.6525952111502792</v>
+      </c>
+      <c r="AQ8">
+        <v>131.8485173711319</v>
+      </c>
+      <c r="AR8">
+        <v>0.001014089314400034</v>
+      </c>
+      <c r="AS8">
+        <v>1.547948368278234</v>
+      </c>
+      <c r="AT8">
+        <v>393.5544063109834</v>
+      </c>
+      <c r="AU8">
+        <v>0.0009775496328779229</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:47">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>112.0608846513275</v>
+        <v>63.59809133376316</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>87.214</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2064.293057906641</v>
+        <v>403.8341016962395</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>511.2413810154794</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02297127951841579</v>
+        <v>0.02178738923321011</v>
       </c>
       <c r="K9">
-        <v>0.05276057339089033</v>
+        <v>0.0191020048899611</v>
       </c>
       <c r="L9">
-        <v>0.003147599269338761</v>
+        <v>0.04893876596810959</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1016.571325306001</v>
+        <v>882.3939577043957</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9015562974029467</v>
+        <v>8.665844776751259</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>24.32359614023412</v>
       </c>
       <c r="S9">
-        <v>0.8578027257244812</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1770.756211766441</v>
+        <v>127.7324005604472</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.4354257695562926</v>
+        <v>424.0131782140788</v>
       </c>
       <c r="W9">
-        <v>1016.571325306001</v>
+        <v>0.0009550290791005366</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.8652038476603732</v>
       </c>
       <c r="Y9">
-        <v>0.5639042433138978</v>
+        <v>1030.845469533494</v>
       </c>
       <c r="Z9">
-        <v>563.9042433138977</v>
+        <v>0.0009483678700363291</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.5702129139213499</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>230.2714198690235</v>
+      </c>
+      <c r="AC9">
+        <v>0.0009680003514868717</v>
+      </c>
+      <c r="AD9">
+        <v>0.8353099122794597</v>
+      </c>
+      <c r="AE9">
+        <v>427.0449931296699</v>
+      </c>
+      <c r="AF9">
+        <v>0.001016800150872977</v>
+      </c>
+      <c r="AG9">
+        <v>0.8019370224710624</v>
+      </c>
+      <c r="AH9">
+        <v>882.3939577043957</v>
+      </c>
+      <c r="AI9">
+        <v>0.00102253292544714</v>
+      </c>
+      <c r="AJ9">
+        <v>0.09187888017085029</v>
+      </c>
+      <c r="AK9">
+        <v>8.665844776751259</v>
+      </c>
+      <c r="AL9">
+        <v>0.001038289566897308</v>
+      </c>
+      <c r="AM9">
+        <v>0.6847828190622467</v>
+      </c>
+      <c r="AN9">
+        <v>24.32359614023412</v>
+      </c>
+      <c r="AO9">
+        <v>0.0009568545413313002</v>
+      </c>
+      <c r="AP9">
+        <v>0.7324448694336333</v>
+      </c>
+      <c r="AQ9">
+        <v>127.7324005604472</v>
+      </c>
+      <c r="AR9">
+        <v>0.001009342203711418</v>
+      </c>
+      <c r="AS9">
+        <v>1.495091438479128</v>
+      </c>
+      <c r="AT9">
+        <v>424.0131782140788</v>
+      </c>
+      <c r="AU9">
+        <v>0.001071109137800549</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:47">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>131.3777617639103</v>
+        <v>38.74611253039893</v>
       </c>
       <c r="C10">
-        <v>16.33907086210717</v>
+        <v>87.214</v>
       </c>
       <c r="D10">
-        <v>223.2113505752345</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2601.679498268624</v>
+        <v>444.9245077099729</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>224.916591683286</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02856099409530397</v>
+        <v>0.01481057419042905</v>
       </c>
       <c r="K10">
-        <v>0.04804689577686777</v>
+        <v>0.01684192807887516</v>
       </c>
       <c r="L10">
-        <v>0.03233245612175138</v>
+        <v>0.04058000311013591</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1002.420838364033</v>
+        <v>751.4413886472155</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8960117820378897</v>
+        <v>6.696040918756501</v>
       </c>
       <c r="Q10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>21.17280596234925</v>
       </c>
       <c r="S10">
-        <v>0.8420504339628174</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2190.74535054926</v>
+        <v>123.7550267823104</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.4192921835584589</v>
+        <v>432.3964322296078</v>
       </c>
       <c r="W10">
-        <v>1002.420838364033</v>
+        <v>0.001052512869824674</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.9398836630199824</v>
       </c>
       <c r="Y10">
-        <v>0.4832423747172801</v>
+        <v>1119.822592713453</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.001001972981018313</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.573455241907372</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>255.1442911993409</v>
+      </c>
+      <c r="AC10">
+        <v>0.001009000671828622</v>
+      </c>
+      <c r="AD10">
+        <v>0.8322097153428464</v>
+      </c>
+      <c r="AE10">
+        <v>187.1777727406306</v>
+      </c>
+      <c r="AF10">
+        <v>0.0009898433945999647</v>
+      </c>
+      <c r="AG10">
+        <v>0.7550884539323803</v>
+      </c>
+      <c r="AH10">
+        <v>751.4413886472155</v>
+      </c>
+      <c r="AI10">
+        <v>0.0009983053513613104</v>
+      </c>
+      <c r="AJ10">
+        <v>0.08590484750129779</v>
+      </c>
+      <c r="AK10">
+        <v>6.696040918756501</v>
+      </c>
+      <c r="AL10">
+        <v>0.0009784361373857946</v>
+      </c>
+      <c r="AM10">
+        <v>0.6735875608567798</v>
+      </c>
+      <c r="AN10">
+        <v>21.17280596234925</v>
+      </c>
+      <c r="AO10">
+        <v>0.001055262497929532</v>
+      </c>
+      <c r="AP10">
+        <v>0.7253938985452897</v>
+      </c>
+      <c r="AQ10">
+        <v>123.7550267823104</v>
+      </c>
+      <c r="AR10">
+        <v>0.0009784625006870904</v>
+      </c>
+      <c r="AS10">
+        <v>1.506656779562054</v>
+      </c>
+      <c r="AT10">
+        <v>432.3964322296078</v>
+      </c>
+      <c r="AU10">
+        <v>0.0009804174320640819</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:47">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>157.207514328091</v>
+        <v>57.11735648682824</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>87.214</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1191.448087431694</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2114.213088858497</v>
+        <v>391.8581745484199</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>431.4883835238437</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02625684770907999</v>
+        <v>0.02047102283396842</v>
       </c>
       <c r="K11">
-        <v>0.06612645055040436</v>
+        <v>0.02000578315522016</v>
       </c>
       <c r="L11">
-        <v>0.01740210705467193</v>
+        <v>0.04662356503094015</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1030.005553117358</v>
+        <v>860.2435585271845</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9388372227906356</v>
+        <v>6.263722075059546</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>25.04009088650983</v>
       </c>
       <c r="S11">
-        <v>0.8475389390374807</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1791.877918230285</v>
+        <v>136.3011008042951</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.4375480352361826</v>
+        <v>416.1432761920134</v>
       </c>
       <c r="W11">
-        <v>1030.005553117358</v>
+        <v>0.00101049986226617</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.8967129623170202</v>
       </c>
       <c r="Y11">
-        <v>0.5621620274899031</v>
+        <v>1068.386943927822</v>
       </c>
       <c r="Z11">
-        <v>562.162027489903</v>
+        <v>0.001000356703336386</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.5463453793316567</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>214.089903017867</v>
+      </c>
+      <c r="AC11">
+        <v>0.001022635610930602</v>
+      </c>
+      <c r="AD11">
+        <v>0.8089601551122441</v>
+      </c>
+      <c r="AE11">
+        <v>349.05690966458</v>
+      </c>
+      <c r="AF11">
+        <v>0.0009559229547146142</v>
+      </c>
+      <c r="AG11">
+        <v>0.8015398394585275</v>
+      </c>
+      <c r="AH11">
+        <v>860.2435585271845</v>
+      </c>
+      <c r="AI11">
+        <v>0.0009453360584047577</v>
+      </c>
+      <c r="AJ11">
+        <v>0.09529110461616627</v>
+      </c>
+      <c r="AK11">
+        <v>6.263722075059546</v>
+      </c>
+      <c r="AL11">
+        <v>0.0009982470235510158</v>
+      </c>
+      <c r="AM11">
+        <v>0.7043716933123674</v>
+      </c>
+      <c r="AN11">
+        <v>25.04009088650983</v>
+      </c>
+      <c r="AO11">
+        <v>0.001016112296461197</v>
+      </c>
+      <c r="AP11">
+        <v>0.7122644004847171</v>
+      </c>
+      <c r="AQ11">
+        <v>136.3011008042951</v>
+      </c>
+      <c r="AR11">
+        <v>0.001046525343554946</v>
+      </c>
+      <c r="AS11">
+        <v>1.566509764047721</v>
+      </c>
+      <c r="AT11">
+        <v>416.1432761920134</v>
+      </c>
+      <c r="AU11">
+        <v>0.00103722289040866</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50.65279408778376</v>
+        <v>57.50965820928763</v>
       </c>
       <c r="C2">
         <v>87.214</v>
@@ -672,130 +672,130 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>374.2759834101722</v>
+        <v>375.9382522243709</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>359.1124984951078</v>
+        <v>494.2039695708479</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01475787322310782</v>
+        <v>0.01846376395018817</v>
       </c>
       <c r="K2">
-        <v>0.0203427661869472</v>
+        <v>0.02019076948174671</v>
       </c>
       <c r="L2">
-        <v>0.05855443636739431</v>
+        <v>0.04657027451884462</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>783.4465881306367</v>
+        <v>872.0386934309274</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.345137187741994</v>
+        <v>7.724654343511677</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>25.43179097833912</v>
+        <v>24.41153065230959</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>142.2403289464583</v>
+        <v>124.1801483422036</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>373.6473522211476</v>
+        <v>422.8113200076815</v>
       </c>
       <c r="W2">
-        <v>0.0009830646736358672</v>
+        <v>0.001013818272273693</v>
       </c>
       <c r="X2">
-        <v>0.8800725360335373</v>
+        <v>0.9162127489949442</v>
       </c>
       <c r="Y2">
-        <v>1048.560739858319</v>
+        <v>1091.619927470561</v>
       </c>
       <c r="Z2">
-        <v>0.001005864420746661</v>
+        <v>0.001008144134629776</v>
       </c>
       <c r="AA2">
-        <v>0.5792896544968527</v>
+        <v>0.5078728046927523</v>
       </c>
       <c r="AB2">
-        <v>216.8142051161484</v>
+        <v>190.9288145484826</v>
       </c>
       <c r="AC2">
-        <v>0.0009903537166161083</v>
+        <v>0.0009680268115201102</v>
       </c>
       <c r="AD2">
-        <v>0.8536080071749805</v>
+        <v>0.8222251404349572</v>
       </c>
       <c r="AE2">
-        <v>306.5413041920372</v>
+        <v>406.3469282839037</v>
       </c>
       <c r="AF2">
-        <v>0.0009868264096665532</v>
+        <v>0.001030855482566661</v>
       </c>
       <c r="AG2">
-        <v>0.7715425193594709</v>
+        <v>0.7873123130623561</v>
       </c>
       <c r="AH2">
-        <v>783.4465881306367</v>
+        <v>872.0386934309274</v>
       </c>
       <c r="AI2">
-        <v>0.0009132638528228959</v>
+        <v>0.0009970449007302711</v>
       </c>
       <c r="AJ2">
-        <v>0.09032674943043213</v>
+        <v>0.08871628233761156</v>
       </c>
       <c r="AK2">
-        <v>7.345137187741994</v>
+        <v>7.724654343511677</v>
       </c>
       <c r="AL2">
-        <v>0.00101566371438263</v>
+        <v>0.00104234890181461</v>
       </c>
       <c r="AM2">
-        <v>0.6709223565974975</v>
+        <v>0.7265431836631415</v>
       </c>
       <c r="AN2">
-        <v>25.43179097833912</v>
+        <v>24.41153065230959</v>
       </c>
       <c r="AO2">
-        <v>0.001000097077365026</v>
+        <v>0.00099010433779712</v>
       </c>
       <c r="AP2">
-        <v>0.7316848480173527</v>
+        <v>0.7015079621192456</v>
       </c>
       <c r="AQ2">
-        <v>142.2403289464583</v>
+        <v>124.1801483422036</v>
       </c>
       <c r="AR2">
-        <v>0.001014967190232501</v>
+        <v>0.0009656672709245072</v>
       </c>
       <c r="AS2">
-        <v>1.538510058661554</v>
+        <v>1.490918874153873</v>
       </c>
       <c r="AT2">
-        <v>373.6473522211476</v>
+        <v>422.8113200076815</v>
       </c>
       <c r="AU2">
-        <v>0.0009850935408002937</v>
+        <v>0.00103586193881595</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51.15385303259033</v>
+        <v>46.92521786963194</v>
       </c>
       <c r="C3">
         <v>87.214</v>
@@ -815,130 +815,130 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>438.5782611872339</v>
+        <v>356.9311117805814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>406.3339270316613</v>
+        <v>382.8108923544143</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01125988604939569</v>
+        <v>0.01164496692968301</v>
       </c>
       <c r="K3">
-        <v>0.02180254395803763</v>
+        <v>0.02125139301720095</v>
       </c>
       <c r="L3">
-        <v>0.05790170560198902</v>
+        <v>0.05409327428060025</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>810.1106977677603</v>
+        <v>854.9313512627667</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>7.555324509894382</v>
+        <v>8.333269076958604</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>23.83470549660388</v>
+        <v>23.45151993212026</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>136.5375956331139</v>
+        <v>125.5450440204573</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>402.7186062647406</v>
+        <v>395.4797532010404</v>
       </c>
       <c r="W3">
-        <v>0.001006098383632638</v>
+        <v>0.0009862258181608584</v>
       </c>
       <c r="X3">
-        <v>0.919454015204679</v>
+        <v>0.9230110636051797</v>
       </c>
       <c r="Y3">
-        <v>1095.481727897006</v>
+        <v>1099.719766410685</v>
       </c>
       <c r="Z3">
-        <v>0.001014328997725894</v>
+        <v>0.001090163520018205</v>
       </c>
       <c r="AA3">
-        <v>0.5157895173272117</v>
+        <v>0.5291773726990202</v>
       </c>
       <c r="AB3">
-        <v>226.2140696479711</v>
+        <v>188.8798679665884</v>
       </c>
       <c r="AC3">
-        <v>0.001009489259034009</v>
+        <v>0.0009769855459153059</v>
       </c>
       <c r="AD3">
-        <v>0.82079055134718</v>
+        <v>0.848927133893718</v>
       </c>
       <c r="AE3">
-        <v>333.5150479993821</v>
+        <v>324.9785536697295</v>
       </c>
       <c r="AF3">
-        <v>0.001057439405047357</v>
+        <v>0.001046632107143171</v>
       </c>
       <c r="AG3">
-        <v>0.7522945548464084</v>
+        <v>0.8145289933899615</v>
       </c>
       <c r="AH3">
-        <v>810.1106977677603</v>
+        <v>854.9313512627667</v>
       </c>
       <c r="AI3">
-        <v>0.001039646359199623</v>
+        <v>0.00103118217950147</v>
       </c>
       <c r="AJ3">
-        <v>0.09320770903075891</v>
+        <v>0.08742297922746349</v>
       </c>
       <c r="AK3">
-        <v>7.555324509894382</v>
+        <v>8.333269076958604</v>
       </c>
       <c r="AL3">
-        <v>0.0009580226647493663</v>
+        <v>0.001028911284583762</v>
       </c>
       <c r="AM3">
-        <v>0.7030003564524384</v>
+        <v>0.703063384925335</v>
       </c>
       <c r="AN3">
-        <v>23.83470549660388</v>
+        <v>23.45151993212026</v>
       </c>
       <c r="AO3">
-        <v>0.001005717176854196</v>
+        <v>0.0009925911787467482</v>
       </c>
       <c r="AP3">
-        <v>0.6798285743351693</v>
+        <v>0.710415739867021</v>
       </c>
       <c r="AQ3">
-        <v>136.5375956331139</v>
+        <v>125.5450440204573</v>
       </c>
       <c r="AR3">
-        <v>0.0009692514542182688</v>
+        <v>0.001064504436015576</v>
       </c>
       <c r="AS3">
-        <v>1.533854675514795</v>
+        <v>1.529440321219501</v>
       </c>
       <c r="AT3">
-        <v>402.7186062647406</v>
+        <v>395.4797532010404</v>
       </c>
       <c r="AU3">
-        <v>0.0009457710647533524</v>
+        <v>0.001039279623942216</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58.75152361365635</v>
+        <v>55.50119432274052</v>
       </c>
       <c r="C4">
         <v>87.214</v>
@@ -958,130 +958,130 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>477.5470311294487</v>
+        <v>399.2301739100607</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>392.2769501232968</v>
+        <v>430.7057715413138</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01510317947133272</v>
+        <v>0.01821791384272629</v>
       </c>
       <c r="K4">
-        <v>0.02148223590639553</v>
+        <v>0.02189425734930693</v>
       </c>
       <c r="L4">
-        <v>0.06575237849945714</v>
+        <v>0.0469965733313149</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>783.7439153763551</v>
+        <v>901.9984959633263</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>7.343709972730048</v>
+        <v>7.319273483735921</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>24.30110966827727</v>
+        <v>21.73938243354635</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>139.7607099214158</v>
+        <v>132.9617442581496</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>436.8891142439347</v>
+        <v>400.4393749913816</v>
       </c>
       <c r="W4">
-        <v>0.001032505877115831</v>
+        <v>0.0009552274093091339</v>
       </c>
       <c r="X4">
-        <v>0.8850914606115179</v>
+        <v>0.9130152458728652</v>
       </c>
       <c r="Y4">
-        <v>1054.540527947717</v>
+        <v>1087.810268491203</v>
       </c>
       <c r="Z4">
-        <v>0.001012074944444517</v>
+        <v>0.000940148766720013</v>
       </c>
       <c r="AA4">
-        <v>0.5440057898436271</v>
+        <v>0.5318359052943635</v>
       </c>
       <c r="AB4">
-        <v>259.7883498570549</v>
+        <v>212.3249409622833</v>
       </c>
       <c r="AC4">
-        <v>0.0009909534647141562</v>
+        <v>0.0009711363586579574</v>
       </c>
       <c r="AD4">
-        <v>0.835968550296717</v>
+        <v>0.8463864457127968</v>
       </c>
       <c r="AE4">
-        <v>327.93119330939</v>
+        <v>364.5435271228404</v>
       </c>
       <c r="AF4">
-        <v>0.0009961461477473589</v>
+        <v>0.001055997993111259</v>
       </c>
       <c r="AG4">
-        <v>0.7499356331816321</v>
+        <v>0.8172466702445976</v>
       </c>
       <c r="AH4">
-        <v>783.7439153763551</v>
+        <v>901.9984959633263</v>
       </c>
       <c r="AI4">
-        <v>0.00107255626344705</v>
+        <v>0.001022909872535982</v>
       </c>
       <c r="AJ4">
-        <v>0.08689663911798301</v>
+        <v>0.08983715767967142</v>
       </c>
       <c r="AK4">
-        <v>7.343709972730048</v>
+        <v>7.319273483735921</v>
       </c>
       <c r="AL4">
-        <v>0.001008153227708984</v>
+        <v>0.001002674662500103</v>
       </c>
       <c r="AM4">
-        <v>0.7274519841712569</v>
+        <v>0.7156871088544204</v>
       </c>
       <c r="AN4">
-        <v>24.30110966827727</v>
+        <v>21.73938243354635</v>
       </c>
       <c r="AO4">
-        <v>0.0009215900585888941</v>
+        <v>0.001020786461165541</v>
       </c>
       <c r="AP4">
-        <v>0.7332432952188154</v>
+        <v>0.6980990210162896</v>
       </c>
       <c r="AQ4">
-        <v>139.7607099214158</v>
+        <v>132.9617442581496</v>
       </c>
       <c r="AR4">
-        <v>0.0009906324710083866</v>
+        <v>0.001004618479106972</v>
       </c>
       <c r="AS4">
-        <v>1.513530451433301</v>
+        <v>1.548107267706056</v>
       </c>
       <c r="AT4">
-        <v>436.8891142439347</v>
+        <v>400.4393749913816</v>
       </c>
       <c r="AU4">
-        <v>0.001006869650238699</v>
+        <v>0.001021458383819114</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -1089,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44.3162008700269</v>
+        <v>58.64594022178223</v>
       </c>
       <c r="C5">
         <v>87.214</v>
@@ -1101,130 +1101,130 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>401.0078007154165</v>
+        <v>367.0202120576076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>394.5008544934704</v>
+        <v>479.9521995505797</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01110998457007553</v>
+        <v>0.01463015574450193</v>
       </c>
       <c r="K5">
-        <v>0.01784519053610196</v>
+        <v>0.02057799321850828</v>
       </c>
       <c r="L5">
-        <v>0.04871502652641338</v>
+        <v>0.06084512774253089</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>847.3684334843954</v>
+        <v>791.0131389561687</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>6.813988844688937</v>
+        <v>7.431947525552392</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>23.07567306500946</v>
+        <v>24.99828070345547</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>135.9297460815253</v>
+        <v>133.5662690446511</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>396.3796971259734</v>
+        <v>426.1080697758271</v>
       </c>
       <c r="W5">
-        <v>0.0009863628176116537</v>
+        <v>0.0009764107190629415</v>
       </c>
       <c r="X5">
-        <v>0.9343378337146833</v>
+        <v>0.8369305139861974</v>
       </c>
       <c r="Y5">
-        <v>1113.215024994431</v>
+        <v>997.1592602020795</v>
       </c>
       <c r="Z5">
-        <v>0.001001371432442743</v>
+        <v>0.0009688057441534004</v>
       </c>
       <c r="AA5">
-        <v>0.5757260886187295</v>
+        <v>0.5292656735355329</v>
       </c>
       <c r="AB5">
-        <v>230.8706526114857</v>
+        <v>194.2511997358238</v>
       </c>
       <c r="AC5">
-        <v>0.0009267247776294179</v>
+        <v>0.001007120032452177</v>
       </c>
       <c r="AD5">
-        <v>0.8313027865652756</v>
+        <v>0.814406319233393</v>
       </c>
       <c r="AE5">
-        <v>327.9496596428042</v>
+        <v>390.8761042439586</v>
       </c>
       <c r="AF5">
-        <v>0.001022830214631784</v>
+        <v>0.0009571184972603818</v>
       </c>
       <c r="AG5">
-        <v>0.7666602591355739</v>
+        <v>0.8077809030180749</v>
       </c>
       <c r="AH5">
-        <v>847.3684334843954</v>
+        <v>791.0131389561687</v>
       </c>
       <c r="AI5">
-        <v>0.000997069277726531</v>
+        <v>0.001042847682789442</v>
       </c>
       <c r="AJ5">
-        <v>0.09280854746348774</v>
+        <v>0.08725899781629141</v>
       </c>
       <c r="AK5">
-        <v>6.813988844688937</v>
+        <v>7.431947525552392</v>
       </c>
       <c r="AL5">
-        <v>0.0009986073261168871</v>
+        <v>0.0009968234528229356</v>
       </c>
       <c r="AM5">
-        <v>0.6712990739100362</v>
+        <v>0.6964819169532405</v>
       </c>
       <c r="AN5">
-        <v>23.07567306500946</v>
+        <v>24.99828070345547</v>
       </c>
       <c r="AO5">
-        <v>0.001027701950493976</v>
+        <v>0.001038128875501681</v>
       </c>
       <c r="AP5">
-        <v>0.6831419136351066</v>
+        <v>0.6778624775373062</v>
       </c>
       <c r="AQ5">
-        <v>135.9297460815253</v>
+        <v>133.5662690446511</v>
       </c>
       <c r="AR5">
-        <v>0.000924311324409617</v>
+        <v>0.0009791495888596456</v>
       </c>
       <c r="AS5">
-        <v>1.524589412832937</v>
+        <v>1.495427378413932</v>
       </c>
       <c r="AT5">
-        <v>396.3796971259734</v>
+        <v>426.1080697758271</v>
       </c>
       <c r="AU5">
-        <v>0.0009983553600029678</v>
+        <v>0.0009849315009660112</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45.95939047799975</v>
+        <v>61.48825783740266</v>
       </c>
       <c r="C6">
         <v>87.214</v>
@@ -1244,130 +1244,130 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>460.9250435856857</v>
+        <v>444.8570212254451</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>300.2645649807592</v>
+        <v>457.4403742941911</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01407921040440113</v>
+        <v>0.01596427488111148</v>
       </c>
       <c r="K6">
-        <v>0.01932741815975501</v>
+        <v>0.02128836511563953</v>
       </c>
       <c r="L6">
-        <v>0.05243497296553258</v>
+        <v>0.06174969405364437</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>840.8303663142593</v>
+        <v>882.4742962326338</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>6.645193084119613</v>
+        <v>5.762173065515158</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>23.97695704452947</v>
+        <v>26.23175120999932</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>133.0792624580232</v>
+        <v>134.9736725701015</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>395.9352036974083</v>
+        <v>391.3688955096595</v>
       </c>
       <c r="W6">
-        <v>0.001019834045140801</v>
+        <v>0.001040324742455867</v>
       </c>
       <c r="X6">
-        <v>0.9065786653088185</v>
+        <v>0.8803901906373856</v>
       </c>
       <c r="Y6">
-        <v>1080.141416888569</v>
+        <v>1048.939208828537</v>
       </c>
       <c r="Z6">
-        <v>0.0009529149204701522</v>
+        <v>0.0009534385537456108</v>
       </c>
       <c r="AA6">
-        <v>0.58495132441805</v>
+        <v>0.5156517442083667</v>
       </c>
       <c r="AB6">
-        <v>269.6187147028942</v>
+        <v>229.3912989182392</v>
       </c>
       <c r="AC6">
-        <v>0.001074612510402867</v>
+        <v>0.0009921451969344937</v>
       </c>
       <c r="AD6">
-        <v>0.8407396488025246</v>
+        <v>0.832387504050917</v>
       </c>
       <c r="AE6">
-        <v>252.4443249097663</v>
+        <v>380.767651410859</v>
       </c>
       <c r="AF6">
-        <v>0.001005102682113206</v>
+        <v>0.0009727248758437251</v>
       </c>
       <c r="AG6">
-        <v>0.7969219309250919</v>
+        <v>0.7895378247278778</v>
       </c>
       <c r="AH6">
-        <v>840.8303663142593</v>
+        <v>882.4742962326338</v>
       </c>
       <c r="AI6">
-        <v>0.0009985253881129763</v>
+        <v>0.001002160494067394</v>
       </c>
       <c r="AJ6">
-        <v>0.08986962461651138</v>
+        <v>0.09196901527446692</v>
       </c>
       <c r="AK6">
-        <v>6.645193084119613</v>
+        <v>5.762173065515158</v>
       </c>
       <c r="AL6">
-        <v>0.0009357288174986679</v>
+        <v>0.001022397686268995</v>
       </c>
       <c r="AM6">
-        <v>0.6639316228737717</v>
+        <v>0.6933287232595232</v>
       </c>
       <c r="AN6">
-        <v>23.97695704452947</v>
+        <v>26.23175120999932</v>
       </c>
       <c r="AO6">
-        <v>0.001014306150903405</v>
+        <v>0.001040540818284767</v>
       </c>
       <c r="AP6">
-        <v>0.7475753862711156</v>
+        <v>0.741986760411826</v>
       </c>
       <c r="AQ6">
-        <v>133.0792624580232</v>
+        <v>134.9736725701015</v>
       </c>
       <c r="AR6">
-        <v>0.001004310234417036</v>
+        <v>0.0009852587308924353</v>
       </c>
       <c r="AS6">
-        <v>1.528493552734909</v>
+        <v>1.511124648368696</v>
       </c>
       <c r="AT6">
-        <v>395.9352036974083</v>
+        <v>391.3688955096595</v>
       </c>
       <c r="AU6">
-        <v>0.0009332773791933069</v>
+        <v>0.0009919863048393422</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70.58845531722582</v>
+        <v>69.28762335396755</v>
       </c>
       <c r="C7">
         <v>87.214</v>
@@ -1387,130 +1387,130 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>366.9980233757007</v>
+        <v>390.6953040388487</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>531.2499278184276</v>
+        <v>552.8233401571723</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02371242683400905</v>
+        <v>0.02503589579330272</v>
       </c>
       <c r="K7">
-        <v>0.02435388141572016</v>
+        <v>0.01974487676985754</v>
       </c>
       <c r="L7">
-        <v>0.05343484118509217</v>
+        <v>0.04863544134435431</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>894.0297347468836</v>
+        <v>865.2230979468842</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>7.145856447487077</v>
+        <v>7.658728465173954</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>25.68223180169851</v>
+        <v>24.83685155934102</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>121.2244351777575</v>
+        <v>131.4981988069035</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>421.5895437709969</v>
+        <v>405.494141947156</v>
       </c>
       <c r="W7">
-        <v>0.001057239450686824</v>
+        <v>0.001001938015204356</v>
       </c>
       <c r="X7">
-        <v>0.8709649390460759</v>
+        <v>0.8590972910486321</v>
       </c>
       <c r="Y7">
-        <v>1037.709510846509</v>
+        <v>1023.569824337642</v>
       </c>
       <c r="Z7">
-        <v>0.001023759272078818</v>
+        <v>0.0009867218727417156</v>
       </c>
       <c r="AA7">
-        <v>0.5172976401812307</v>
+        <v>0.5792742881456293</v>
       </c>
       <c r="AB7">
-        <v>189.8472114434261</v>
+        <v>226.3197441289443</v>
       </c>
       <c r="AC7">
-        <v>0.0009608213271865435</v>
+        <v>0.000974662209128042</v>
       </c>
       <c r="AD7">
-        <v>0.8401415337808827</v>
+        <v>0.8310567052336029</v>
       </c>
       <c r="AE7">
-        <v>446.325129178357</v>
+        <v>459.427543647255</v>
       </c>
       <c r="AF7">
-        <v>0.001021482422399449</v>
+        <v>0.001000686534471118</v>
       </c>
       <c r="AG7">
-        <v>0.8061913073782917</v>
+        <v>0.7626518661351511</v>
       </c>
       <c r="AH7">
-        <v>894.0297347468836</v>
+        <v>865.2230979468842</v>
       </c>
       <c r="AI7">
-        <v>0.001017061417243658</v>
+        <v>0.001024572792352883</v>
       </c>
       <c r="AJ7">
-        <v>0.08701500553846572</v>
+        <v>0.09125281279821137</v>
       </c>
       <c r="AK7">
-        <v>7.145856447487077</v>
+        <v>7.658728465173954</v>
       </c>
       <c r="AL7">
-        <v>0.001028407417897459</v>
+        <v>0.000962879190524621</v>
       </c>
       <c r="AM7">
-        <v>0.6856710510303476</v>
+        <v>0.6507016549069267</v>
       </c>
       <c r="AN7">
-        <v>25.68223180169851</v>
+        <v>24.83685155934102</v>
       </c>
       <c r="AO7">
-        <v>0.001004540127450609</v>
+        <v>0.0009657172287423247</v>
       </c>
       <c r="AP7">
-        <v>0.7029095053156813</v>
+        <v>0.7011101150981923</v>
       </c>
       <c r="AQ7">
-        <v>121.2244351777575</v>
+        <v>131.4981988069035</v>
       </c>
       <c r="AR7">
-        <v>0.001092482075697843</v>
+        <v>0.0009663859609054179</v>
       </c>
       <c r="AS7">
-        <v>1.544915826120429</v>
+        <v>1.529190766395067</v>
       </c>
       <c r="AT7">
-        <v>421.5895437709969</v>
+        <v>405.494141947156</v>
       </c>
       <c r="AU7">
-        <v>0.001052448720872387</v>
+        <v>0.001020599251130156</v>
       </c>
     </row>
     <row r="8" spans="1:47">
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>47.68227272263036</v>
+        <v>43.84348326548755</v>
       </c>
       <c r="C8">
         <v>87.214</v>
@@ -1530,130 +1530,130 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>426.9627040573264</v>
+        <v>441.0986447796012</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>339.7057696112413</v>
+        <v>297.4444760245828</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01339391813084892</v>
+        <v>0.01023537860263714</v>
       </c>
       <c r="K8">
-        <v>0.01890479479699839</v>
+        <v>0.02199757939251098</v>
       </c>
       <c r="L8">
-        <v>0.05600811164230464</v>
+        <v>0.05869944486216738</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>826.14999595373</v>
+        <v>801.1273710933707</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>8.236033613965819</v>
+        <v>6.585671161015664</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>24.76926383211076</v>
+        <v>25.83918278355234</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>131.8485173711319</v>
+        <v>126.9751125592834</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>393.5544063109834</v>
+        <v>402.7236807356651</v>
       </c>
       <c r="W8">
-        <v>0.001005822937733735</v>
+        <v>0.001012539250124469</v>
       </c>
       <c r="X8">
-        <v>0.9351954562130279</v>
+        <v>0.8744140272431111</v>
       </c>
       <c r="Y8">
-        <v>1114.236837679823</v>
+        <v>1041.81892038225</v>
       </c>
       <c r="Z8">
-        <v>0.0009936216137475923</v>
+        <v>0.001032790026257334</v>
       </c>
       <c r="AA8">
-        <v>0.5413044732500558</v>
+        <v>0.5582926319524557</v>
       </c>
       <c r="AB8">
-        <v>231.1168216171705</v>
+        <v>246.2621233446649</v>
       </c>
       <c r="AC8">
-        <v>0.0009598532025838741</v>
+        <v>0.001014430348661332</v>
       </c>
       <c r="AD8">
-        <v>0.8122689861416583</v>
+        <v>0.8409462868924305</v>
       </c>
       <c r="AE8">
-        <v>275.9324610685948</v>
+        <v>250.1348276695375</v>
       </c>
       <c r="AF8">
-        <v>0.001045850252387096</v>
+        <v>0.0009909021781107485</v>
       </c>
       <c r="AG8">
-        <v>0.7955760645395131</v>
+        <v>0.8086513939349579</v>
       </c>
       <c r="AH8">
-        <v>826.14999595373</v>
+        <v>801.1273710933707</v>
       </c>
       <c r="AI8">
-        <v>0.0009806340677379094</v>
+        <v>0.001007999403074691</v>
       </c>
       <c r="AJ8">
-        <v>0.09111662038704296</v>
+        <v>0.08734044321685495</v>
       </c>
       <c r="AK8">
-        <v>8.236033613965819</v>
+        <v>6.585671161015664</v>
       </c>
       <c r="AL8">
-        <v>0.001042767559797475</v>
+        <v>0.0009684972530017174</v>
       </c>
       <c r="AM8">
-        <v>0.6844916947881554</v>
+        <v>0.6887265520370977</v>
       </c>
       <c r="AN8">
-        <v>24.76926383211076</v>
+        <v>25.83918278355234</v>
       </c>
       <c r="AO8">
-        <v>0.0009787750534889176</v>
+        <v>0.001047685372471982</v>
       </c>
       <c r="AP8">
-        <v>0.6525952111502792</v>
+        <v>0.7308033813085185</v>
       </c>
       <c r="AQ8">
-        <v>131.8485173711319</v>
+        <v>126.9751125592834</v>
       </c>
       <c r="AR8">
-        <v>0.001014089314400034</v>
+        <v>0.0009943378487037064</v>
       </c>
       <c r="AS8">
-        <v>1.547948368278234</v>
+        <v>1.543870131283757</v>
       </c>
       <c r="AT8">
-        <v>393.5544063109834</v>
+        <v>402.7236807356651</v>
       </c>
       <c r="AU8">
-        <v>0.0009775496328779229</v>
+        <v>0.001016562908150759</v>
       </c>
     </row>
     <row r="9" spans="1:47">
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63.59809133376316</v>
+        <v>55.06676536098703</v>
       </c>
       <c r="C9">
         <v>87.214</v>
@@ -1673,130 +1673,130 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>403.8341016962395</v>
+        <v>449.8181117450036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>511.2413810154794</v>
+        <v>407.0398751395624</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02178738923321011</v>
+        <v>0.0155774430461441</v>
       </c>
       <c r="K9">
-        <v>0.0191020048899611</v>
+        <v>0.01827055393438476</v>
       </c>
       <c r="L9">
-        <v>0.04893876596810959</v>
+        <v>0.05763938532309543</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>882.3939577043957</v>
+        <v>864.6895172007128</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>8.665844776751259</v>
+        <v>8.016430056172924</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>24.32359614023412</v>
+        <v>22.58083541566042</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>127.7324005604472</v>
+        <v>126.4031459522721</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>424.0131782140788</v>
+        <v>428.8689675856533</v>
       </c>
       <c r="W9">
-        <v>0.0009550290791005366</v>
+        <v>0.0009392585278092555</v>
       </c>
       <c r="X9">
-        <v>0.8652038476603732</v>
+        <v>0.9039850693042315</v>
       </c>
       <c r="Y9">
-        <v>1030.845469533494</v>
+        <v>1077.051281889334</v>
       </c>
       <c r="Z9">
-        <v>0.0009483678700363291</v>
+        <v>0.0009961628761296646</v>
       </c>
       <c r="AA9">
-        <v>0.5702129139213499</v>
+        <v>0.5459446123207639</v>
       </c>
       <c r="AB9">
-        <v>230.2714198690235</v>
+        <v>245.5757746314841</v>
       </c>
       <c r="AC9">
-        <v>0.0009680003514868717</v>
+        <v>0.001031549903297911</v>
       </c>
       <c r="AD9">
-        <v>0.8353099122794597</v>
+        <v>0.8279314974811127</v>
       </c>
       <c r="AE9">
-        <v>427.0449931296699</v>
+        <v>337.001133358823</v>
       </c>
       <c r="AF9">
-        <v>0.001016800150872977</v>
+        <v>0.001034843777950282</v>
       </c>
       <c r="AG9">
-        <v>0.8019370224710624</v>
+        <v>0.7985446684131927</v>
       </c>
       <c r="AH9">
-        <v>882.3939577043957</v>
+        <v>864.6895172007128</v>
       </c>
       <c r="AI9">
-        <v>0.00102253292544714</v>
+        <v>0.001000944049114938</v>
       </c>
       <c r="AJ9">
-        <v>0.09187888017085029</v>
+        <v>0.09257441145914298</v>
       </c>
       <c r="AK9">
-        <v>8.665844776751259</v>
+        <v>8.016430056172924</v>
       </c>
       <c r="AL9">
-        <v>0.001038289566897308</v>
+        <v>0.001029103696232482</v>
       </c>
       <c r="AM9">
-        <v>0.6847828190622467</v>
+        <v>0.6984687534259296</v>
       </c>
       <c r="AN9">
-        <v>24.32359614023412</v>
+        <v>22.58083541566042</v>
       </c>
       <c r="AO9">
-        <v>0.0009568545413313002</v>
+        <v>0.001019981455063385</v>
       </c>
       <c r="AP9">
-        <v>0.7324448694336333</v>
+        <v>0.7079347589793693</v>
       </c>
       <c r="AQ9">
-        <v>127.7324005604472</v>
+        <v>126.4031459522721</v>
       </c>
       <c r="AR9">
-        <v>0.001009342203711418</v>
+        <v>0.0009952784492613502</v>
       </c>
       <c r="AS9">
-        <v>1.495091438479128</v>
+        <v>1.535398388459815</v>
       </c>
       <c r="AT9">
-        <v>424.0131782140788</v>
+        <v>428.8689675856533</v>
       </c>
       <c r="AU9">
-        <v>0.001071109137800549</v>
+        <v>0.001049238812259454</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -1804,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.74611253039893</v>
+        <v>52.18156482997266</v>
       </c>
       <c r="C10">
         <v>87.214</v>
@@ -1816,130 +1816,130 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>444.9245077099729</v>
+        <v>397.1549230963683</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>224.916591683286</v>
+        <v>480.0452150748949</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01481057419042905</v>
+        <v>0.01284387548542748</v>
       </c>
       <c r="K10">
-        <v>0.01684192807887516</v>
+        <v>0.02327971288602288</v>
       </c>
       <c r="L10">
-        <v>0.04058000311013591</v>
+        <v>0.04740508927999132</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>751.4413886472155</v>
+        <v>877.0854620906149</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>6.696040918756501</v>
+        <v>7.963923061732529</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>21.17280596234925</v>
+        <v>23.08936645746746</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>123.7550267823104</v>
+        <v>133.0052671160035</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>432.3964322296078</v>
+        <v>420.5173780544369</v>
       </c>
       <c r="W10">
-        <v>0.001052512869824674</v>
+        <v>0.0009563195737853988</v>
       </c>
       <c r="X10">
-        <v>0.9398836630199824</v>
+        <v>0.9312398609302546</v>
       </c>
       <c r="Y10">
-        <v>1119.822592713453</v>
+        <v>1109.523951245508</v>
       </c>
       <c r="Z10">
-        <v>0.001001972981018313</v>
+        <v>0.0009412218424818314</v>
       </c>
       <c r="AA10">
-        <v>0.573455241907372</v>
+        <v>0.5355643267436121</v>
       </c>
       <c r="AB10">
-        <v>255.1442911993409</v>
+        <v>212.7020090010175</v>
       </c>
       <c r="AC10">
-        <v>0.001009000671828622</v>
+        <v>0.0009932934871508951</v>
       </c>
       <c r="AD10">
-        <v>0.8322097153428464</v>
+        <v>0.8456575752040631</v>
       </c>
       <c r="AE10">
-        <v>187.1777727406306</v>
+        <v>405.9538725685485</v>
       </c>
       <c r="AF10">
-        <v>0.0009898433945999647</v>
+        <v>0.0009987328197939304</v>
       </c>
       <c r="AG10">
-        <v>0.7550884539323803</v>
+        <v>0.7662881633224321</v>
       </c>
       <c r="AH10">
-        <v>751.4413886472155</v>
+        <v>877.0854620906149</v>
       </c>
       <c r="AI10">
-        <v>0.0009983053513613104</v>
+        <v>0.001015103479436882</v>
       </c>
       <c r="AJ10">
-        <v>0.08590484750129779</v>
+        <v>0.09766218096116813</v>
       </c>
       <c r="AK10">
-        <v>6.696040918756501</v>
+        <v>7.963923061732529</v>
       </c>
       <c r="AL10">
-        <v>0.0009784361373857946</v>
+        <v>0.0009656558389676555</v>
       </c>
       <c r="AM10">
-        <v>0.6735875608567798</v>
+        <v>0.6825821328550911</v>
       </c>
       <c r="AN10">
-        <v>21.17280596234925</v>
+        <v>23.08936645746746</v>
       </c>
       <c r="AO10">
-        <v>0.001055262497929532</v>
+        <v>0.0009656684341510411</v>
       </c>
       <c r="AP10">
-        <v>0.7253938985452897</v>
+        <v>0.7134667564530368</v>
       </c>
       <c r="AQ10">
-        <v>123.7550267823104</v>
+        <v>133.0052671160035</v>
       </c>
       <c r="AR10">
-        <v>0.0009784625006870904</v>
+        <v>0.001067867637845244</v>
       </c>
       <c r="AS10">
-        <v>1.506656779562054</v>
+        <v>1.492270613772955</v>
       </c>
       <c r="AT10">
-        <v>432.3964322296078</v>
+        <v>420.5173780544369</v>
       </c>
       <c r="AU10">
-        <v>0.0009804174320640819</v>
+        <v>0.0009999966187764166</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -1947,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>57.11735648682824</v>
+        <v>50.94502238504635</v>
       </c>
       <c r="C11">
         <v>87.214</v>
@@ -1959,130 +1959,130 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>391.8581745484199</v>
+        <v>372.2417721010808</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>431.4883835238437</v>
+        <v>412.6215025531527</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02047102283396842</v>
+        <v>0.01273507692383651</v>
       </c>
       <c r="K11">
-        <v>0.02000578315522016</v>
+        <v>0.0192313280082686</v>
       </c>
       <c r="L11">
-        <v>0.04662356503094015</v>
+        <v>0.05795308237710222</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>860.2435585271845</v>
+        <v>847.3312757829062</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>6.263722075059546</v>
+        <v>7.368624683786805</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>25.04009088650983</v>
+        <v>25.43662629663156</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>136.3011008042951</v>
+        <v>126.2242787010973</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>416.1432761920134</v>
+        <v>418.9444137081647</v>
       </c>
       <c r="W11">
-        <v>0.00101049986226617</v>
+        <v>0.0009510501995870754</v>
       </c>
       <c r="X11">
-        <v>0.8967129623170202</v>
+        <v>0.9160728583684609</v>
       </c>
       <c r="Y11">
-        <v>1068.386943927822</v>
+        <v>1091.453255051188</v>
       </c>
       <c r="Z11">
-        <v>0.001000356703336386</v>
+        <v>0.001028972580806865</v>
       </c>
       <c r="AA11">
-        <v>0.5463453793316567</v>
+        <v>0.5321926747915752</v>
       </c>
       <c r="AB11">
-        <v>214.089903017867</v>
+        <v>198.1043443636301</v>
       </c>
       <c r="AC11">
-        <v>0.001022635610930602</v>
+        <v>0.001002059805735288</v>
       </c>
       <c r="AD11">
-        <v>0.8089601551122441</v>
+        <v>0.8379830284283423</v>
       </c>
       <c r="AE11">
-        <v>349.05690966458</v>
+        <v>345.7698163041439</v>
       </c>
       <c r="AF11">
-        <v>0.0009559229547146142</v>
+        <v>0.001030585228096514</v>
       </c>
       <c r="AG11">
-        <v>0.8015398394585275</v>
+        <v>0.8045137564546833</v>
       </c>
       <c r="AH11">
-        <v>860.2435585271845</v>
+        <v>847.3312757829062</v>
       </c>
       <c r="AI11">
-        <v>0.0009453360584047577</v>
+        <v>0.001004851444081118</v>
       </c>
       <c r="AJ11">
-        <v>0.09529110461616627</v>
+        <v>0.09008418434073803</v>
       </c>
       <c r="AK11">
-        <v>6.263722075059546</v>
+        <v>7.368624683786805</v>
       </c>
       <c r="AL11">
-        <v>0.0009982470235510158</v>
+        <v>0.001074106926045062</v>
       </c>
       <c r="AM11">
-        <v>0.7043716933123674</v>
+        <v>0.6527174861052978</v>
       </c>
       <c r="AN11">
-        <v>25.04009088650983</v>
+        <v>25.43662629663156</v>
       </c>
       <c r="AO11">
-        <v>0.001016112296461197</v>
+        <v>0.001044146413647771</v>
       </c>
       <c r="AP11">
-        <v>0.7122644004847171</v>
+        <v>0.6828119074483411</v>
       </c>
       <c r="AQ11">
-        <v>136.3011008042951</v>
+        <v>126.2242787010973</v>
       </c>
       <c r="AR11">
-        <v>0.001046525343554946</v>
+        <v>0.000961190376354309</v>
       </c>
       <c r="AS11">
-        <v>1.566509764047721</v>
+        <v>1.515285603101038</v>
       </c>
       <c r="AT11">
-        <v>416.1432761920134</v>
+        <v>418.9444137081647</v>
       </c>
       <c r="AU11">
-        <v>0.00103722289040866</v>
+        <v>0.00102098202307974</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52.6452763328954</v>
+        <v>53.6140288729115</v>
       </c>
       <c r="C2">
         <v>87.214</v>
@@ -672,130 +672,130 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>371.5458029604555</v>
+        <v>428.280244309893</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>492.5150211550128</v>
+        <v>464.0518752201003</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01338088601337492</v>
+        <v>0.0121570441834635</v>
       </c>
       <c r="K2">
-        <v>0.02327182389671468</v>
+        <v>0.01963277841345167</v>
       </c>
       <c r="L2">
-        <v>0.0470816290870748</v>
+        <v>0.05575837250302004</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>856.5423098386788</v>
+        <v>882.1481460203819</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>8.353174356277631</v>
+        <v>7.338232931159531</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>22.44291380449058</v>
+        <v>23.81406428126117</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>130.6370847869817</v>
+        <v>133.3838248188448</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>416.9472149149414</v>
+        <v>407.8053181776484</v>
       </c>
       <c r="W2">
-        <v>0.001017039800894917</v>
+        <v>0.001003988479294612</v>
       </c>
       <c r="X2">
-        <v>0.934871712898634</v>
+        <v>0.9335099068773931</v>
       </c>
       <c r="Y2">
-        <v>1113.851114327069</v>
+        <v>1112.228593147609</v>
       </c>
       <c r="Z2">
-        <v>0.0009937020174443675</v>
+        <v>0.001019120703483518</v>
       </c>
       <c r="AA2">
-        <v>0.5298609988206074</v>
+        <v>0.5188767414771587</v>
       </c>
       <c r="AB2">
-        <v>196.8676302642316</v>
+        <v>222.2246576065587</v>
       </c>
       <c r="AC2">
-        <v>0.0009663204047517917</v>
+        <v>0.0009774128254531375</v>
       </c>
       <c r="AD2">
-        <v>0.837034118047576</v>
+        <v>0.8397498655111978</v>
       </c>
       <c r="AE2">
-        <v>412.2518763576695</v>
+        <v>389.6874998062983</v>
       </c>
       <c r="AF2">
-        <v>0.0009918508121129147</v>
+        <v>0.000984614700336758</v>
       </c>
       <c r="AG2">
-        <v>0.7647703094927919</v>
+        <v>0.7657197407816889</v>
       </c>
       <c r="AH2">
-        <v>856.5423098386788</v>
+        <v>882.1481460203819</v>
       </c>
       <c r="AI2">
-        <v>0.0009545230705377617</v>
+        <v>0.0009619134810018753</v>
       </c>
       <c r="AJ2">
-        <v>0.08561599683653895</v>
+        <v>0.08800686901942845</v>
       </c>
       <c r="AK2">
-        <v>8.353174356277631</v>
+        <v>7.338232931159531</v>
       </c>
       <c r="AL2">
-        <v>0.0009754904562939866</v>
+        <v>0.001027975283699864</v>
       </c>
       <c r="AM2">
-        <v>0.6526911333532717</v>
+        <v>0.6729757209362213</v>
       </c>
       <c r="AN2">
-        <v>22.44291380449058</v>
+        <v>23.81406428126117</v>
       </c>
       <c r="AO2">
-        <v>0.00102442440299449</v>
+        <v>0.0009916803794674416</v>
       </c>
       <c r="AP2">
-        <v>0.6528109389653927</v>
+        <v>0.7090897307023841</v>
       </c>
       <c r="AQ2">
-        <v>130.6370847869817</v>
+        <v>133.3838248188448</v>
       </c>
       <c r="AR2">
-        <v>0.0009764494888525672</v>
+        <v>0.001019279789329731</v>
       </c>
       <c r="AS2">
-        <v>1.539086252855079</v>
+        <v>1.537638227593586</v>
       </c>
       <c r="AT2">
-        <v>416.9472149149414</v>
+        <v>407.8053181776484</v>
       </c>
       <c r="AU2">
-        <v>0.0009985527904082332</v>
+        <v>0.0009711228535752979</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41.825256347505</v>
+        <v>50.88869313145803</v>
       </c>
       <c r="C3">
         <v>87.214</v>
@@ -815,130 +815,130 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>495.2171634340177</v>
+        <v>373.8942591027078</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>159.9061137940548</v>
+        <v>483.1272158022734</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01375598170256241</v>
+        <v>0.01294994174673858</v>
       </c>
       <c r="K3">
-        <v>0.02684075058011019</v>
+        <v>0.01726884304971958</v>
       </c>
       <c r="L3">
-        <v>0.0481346617520567</v>
+        <v>0.05002139632559284</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>745.7284796816422</v>
+        <v>877.7339717510523</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>7.577780469740994</v>
+        <v>8.721962734239312</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>23.60436130586512</v>
+        <v>22.0802847503616</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>140.7171086942494</v>
+        <v>140.4775773343349</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>428.6296385041169</v>
+        <v>385.3970541968857</v>
       </c>
       <c r="W3">
-        <v>0.001005104783421494</v>
+        <v>0.000995149774882839</v>
       </c>
       <c r="X3">
-        <v>0.9371767525651296</v>
+        <v>0.928976817521297</v>
       </c>
       <c r="Y3">
-        <v>1116.59744942917</v>
+        <v>1106.827652504131</v>
       </c>
       <c r="Z3">
-        <v>0.0009991754024899742</v>
+        <v>0.001020713015940025</v>
       </c>
       <c r="AA3">
-        <v>0.5598874238173894</v>
+        <v>0.5092932733517126</v>
       </c>
       <c r="AB3">
-        <v>277.2658618652273</v>
+        <v>190.4218311058314</v>
       </c>
       <c r="AC3">
-        <v>0.0009983149207037972</v>
+        <v>0.0009677945558486553</v>
       </c>
       <c r="AD3">
-        <v>0.83170735319061</v>
+        <v>0.8526343593606128</v>
       </c>
       <c r="AE3">
-        <v>132.9950906626498</v>
+        <v>411.9308641352479</v>
       </c>
       <c r="AF3">
-        <v>0.001011469731547477</v>
+        <v>0.001021326573182564</v>
       </c>
       <c r="AG3">
-        <v>0.8028907824126361</v>
+        <v>0.780097536779125</v>
       </c>
       <c r="AH3">
-        <v>745.7284796816422</v>
+        <v>877.7339717510523</v>
       </c>
       <c r="AI3">
-        <v>0.0009891634874082136</v>
+        <v>0.001009066623769285</v>
       </c>
       <c r="AJ3">
-        <v>0.09227513370363367</v>
+        <v>0.09066699151633288</v>
       </c>
       <c r="AK3">
-        <v>7.577780469740994</v>
+        <v>8.721962734239312</v>
       </c>
       <c r="AL3">
-        <v>0.0009832618667035737</v>
+        <v>0.0009397195307849035</v>
       </c>
       <c r="AM3">
-        <v>0.6192274534539852</v>
+        <v>0.6659634939707622</v>
       </c>
       <c r="AN3">
-        <v>23.60436130586512</v>
+        <v>22.0802847503616</v>
       </c>
       <c r="AO3">
-        <v>0.001056819579634105</v>
+        <v>0.001014277797518422</v>
       </c>
       <c r="AP3">
-        <v>0.7205920383105378</v>
+        <v>0.6928431927694515</v>
       </c>
       <c r="AQ3">
-        <v>140.7171086942494</v>
+        <v>140.4775773343349</v>
       </c>
       <c r="AR3">
-        <v>0.001036481649388675</v>
+        <v>0.0009832926944251421</v>
       </c>
       <c r="AS3">
-        <v>1.517093015717739</v>
+        <v>1.529883474444269</v>
       </c>
       <c r="AT3">
-        <v>428.6296385041169</v>
+        <v>385.3970541968857</v>
       </c>
       <c r="AU3">
-        <v>0.001006392911927274</v>
+        <v>0.0009912096592654132</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58.14781008274321</v>
+        <v>47.46779545447417</v>
       </c>
       <c r="C4">
         <v>87.214</v>
@@ -958,130 +958,130 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>458.0437306829778</v>
+        <v>341.0687738763023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>558.3650423680397</v>
+        <v>472.0001521246543</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01308218258930357</v>
+        <v>0.0115300034651086</v>
       </c>
       <c r="K4">
-        <v>0.0184365448458151</v>
+        <v>0.02053180538848691</v>
       </c>
       <c r="L4">
-        <v>0.05183212648653581</v>
+        <v>0.04657771966677064</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>976.6607944267188</v>
+        <v>900.6976035444858</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>7.191664607325146</v>
+        <v>7.667380358118211</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>21.13106636160556</v>
+        <v>26.1578000355324</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>136.2781353834299</v>
+        <v>133.5660467908301</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>407.2672526405244</v>
+        <v>439.5063420473402</v>
       </c>
       <c r="W4">
-        <v>0.001010670228622558</v>
+        <v>0.0009868792904625199</v>
       </c>
       <c r="X4">
-        <v>0.9358650654674673</v>
+        <v>0.9329289269522153</v>
       </c>
       <c r="Y4">
-        <v>1115.034642345351</v>
+        <v>1111.536385726919</v>
       </c>
       <c r="Z4">
-        <v>0.0009937282985247385</v>
+        <v>0.00103041549829562</v>
       </c>
       <c r="AA4">
-        <v>0.5288905790651945</v>
+        <v>0.5749244562604591</v>
       </c>
       <c r="AB4">
-        <v>242.2550139581021</v>
+        <v>196.0887793682546</v>
       </c>
       <c r="AC4">
-        <v>0.001016168586085043</v>
+        <v>0.0009662965065815141</v>
       </c>
       <c r="AD4">
-        <v>0.8400033462225753</v>
+        <v>0.8317384541321819</v>
       </c>
       <c r="AE4">
-        <v>469.0285040028634</v>
+        <v>392.5806768783148</v>
       </c>
       <c r="AF4">
-        <v>0.0009600450533381133</v>
+        <v>0.0009663712199169086</v>
       </c>
       <c r="AG4">
-        <v>0.7768051132169992</v>
+        <v>0.8156074511419156</v>
       </c>
       <c r="AH4">
-        <v>976.6607944267188</v>
+        <v>900.6976035444858</v>
       </c>
       <c r="AI4">
-        <v>0.001054068779448436</v>
+        <v>0.0009943414030698786</v>
       </c>
       <c r="AJ4">
-        <v>0.08553370084399534</v>
+        <v>0.08992267946509611</v>
       </c>
       <c r="AK4">
-        <v>7.191664607325146</v>
+        <v>7.667380358118211</v>
       </c>
       <c r="AL4">
-        <v>0.001059594636644141</v>
+        <v>0.001013396974702585</v>
       </c>
       <c r="AM4">
-        <v>0.6892368721087813</v>
+        <v>0.6884004743780061</v>
       </c>
       <c r="AN4">
-        <v>21.13106636160556</v>
+        <v>26.1578000355324</v>
       </c>
       <c r="AO4">
-        <v>0.000947798115167675</v>
+        <v>0.001054883068875319</v>
       </c>
       <c r="AP4">
-        <v>0.7227400465033993</v>
+        <v>0.717093321352955</v>
       </c>
       <c r="AQ4">
-        <v>136.2781353834299</v>
+        <v>133.5660467908301</v>
       </c>
       <c r="AR4">
-        <v>0.0009685228243066268</v>
+        <v>0.0009527918609884159</v>
       </c>
       <c r="AS4">
-        <v>1.532560809857316</v>
+        <v>1.534836472662366</v>
       </c>
       <c r="AT4">
-        <v>407.2672526405244</v>
+        <v>439.5063420473402</v>
       </c>
       <c r="AU4">
-        <v>0.001007259509433724</v>
+        <v>0.0009412959238030525</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -1089,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54.13863673039128</v>
+        <v>43.7977498963502</v>
       </c>
       <c r="C5">
         <v>87.214</v>
@@ -1101,130 +1101,130 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>390.7452911208738</v>
+        <v>415.4700470356821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>453.2930913209966</v>
+        <v>345.3576008003247</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01413906269423757</v>
+        <v>0.01103010409214692</v>
       </c>
       <c r="K5">
-        <v>0.01552008896158125</v>
+        <v>0.02212213483228839</v>
       </c>
       <c r="L5">
-        <v>0.05785043176715923</v>
+        <v>0.04847325101227368</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>891.3313380947036</v>
+        <v>864.0707544129565</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>7.80520956220842</v>
+        <v>7.588606235337236</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>25.16430276162719</v>
+        <v>27.16178431793838</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>142.7082776307537</v>
+        <v>131.8048820489254</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>421.5174137883042</v>
+        <v>394.4487143788305</v>
       </c>
       <c r="W5">
-        <v>0.001039708942867721</v>
+        <v>0.001009354222655065</v>
       </c>
       <c r="X5">
-        <v>0.9270999768035113</v>
+        <v>0.9360264667164867</v>
       </c>
       <c r="Y5">
-        <v>1104.591494220511</v>
+        <v>1115.226943554804</v>
       </c>
       <c r="Z5">
-        <v>0.0009897817830112634</v>
+        <v>0.001016562264295554</v>
       </c>
       <c r="AA5">
-        <v>0.5859297898519683</v>
+        <v>0.5245048350321246</v>
       </c>
       <c r="AB5">
-        <v>228.9493063120998</v>
+        <v>217.9160484812395</v>
       </c>
       <c r="AC5">
-        <v>0.001028118559143242</v>
+        <v>0.001043291660256918</v>
       </c>
       <c r="AD5">
-        <v>0.8241534343406447</v>
+        <v>0.8334473952017766</v>
       </c>
       <c r="AE5">
-        <v>373.5830579750868</v>
+        <v>287.8373928001656</v>
       </c>
       <c r="AF5">
-        <v>0.000994146861664858</v>
+        <v>0.000964526567163855</v>
       </c>
       <c r="AG5">
-        <v>0.8162459771315652</v>
+        <v>0.8232497936962005</v>
       </c>
       <c r="AH5">
-        <v>891.3313380947036</v>
+        <v>864.0707544129565</v>
       </c>
       <c r="AI5">
-        <v>0.000948547922755406</v>
+        <v>0.001074578843016275</v>
       </c>
       <c r="AJ5">
-        <v>0.08958465923593556</v>
+        <v>0.09049085758354249</v>
       </c>
       <c r="AK5">
-        <v>7.80520956220842</v>
+        <v>7.588606235337236</v>
       </c>
       <c r="AL5">
-        <v>0.0009898832054743292</v>
+        <v>0.001033535304020922</v>
       </c>
       <c r="AM5">
-        <v>0.6678760880747846</v>
+        <v>0.6973004115240369</v>
       </c>
       <c r="AN5">
-        <v>25.16430276162719</v>
+        <v>27.16178431793838</v>
       </c>
       <c r="AO5">
-        <v>0.0009743489007912459</v>
+        <v>0.001083421801540355</v>
       </c>
       <c r="AP5">
-        <v>0.6735523254151664</v>
+        <v>0.7107488884166304</v>
       </c>
       <c r="AQ5">
-        <v>142.7082776307537</v>
+        <v>131.8048820489254</v>
       </c>
       <c r="AR5">
-        <v>0.001055794534799191</v>
+        <v>0.0009826820003566745</v>
       </c>
       <c r="AS5">
-        <v>1.51376447916093</v>
+        <v>1.499024615495767</v>
       </c>
       <c r="AT5">
-        <v>421.5174137883042</v>
+        <v>394.4487143788305</v>
       </c>
       <c r="AU5">
-        <v>0.001021257233736316</v>
+        <v>0.001034384163985833</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>53.04784157184913</v>
+        <v>38.8269351033933</v>
       </c>
       <c r="C6">
         <v>87.214</v>
@@ -1244,130 +1244,130 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>406.0828522221991</v>
+        <v>477.338853621536</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>520.2202068062979</v>
+        <v>250.9276648657085</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01282078960207512</v>
+        <v>0.01178108171379331</v>
       </c>
       <c r="K6">
-        <v>0.01847199926764121</v>
+        <v>0.01805600182762122</v>
       </c>
       <c r="L6">
-        <v>0.04833631808869387</v>
+        <v>0.04658715462149561</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>884.8169753298216</v>
+        <v>843.49852971526</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>8.737289720709475</v>
+        <v>6.717572957623268</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>24.49978526467693</v>
+        <v>24.38596837934758</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>124.103253809559</v>
+        <v>125.5822890087317</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>427.719890611368</v>
+        <v>389.736586751124</v>
       </c>
       <c r="W6">
-        <v>0.001002251269835089</v>
+        <v>0.001001448769775207</v>
       </c>
       <c r="X6">
-        <v>0.9364929139280332</v>
+        <v>0.9349002828449477</v>
       </c>
       <c r="Y6">
-        <v>1115.782691192889</v>
+        <v>1113.885153934963</v>
       </c>
       <c r="Z6">
-        <v>0.001019702997814731</v>
+        <v>0.0009997576004930654</v>
       </c>
       <c r="AA6">
-        <v>0.5750424759543209</v>
+        <v>0.5014827540465786</v>
       </c>
       <c r="AB6">
-        <v>233.514888784446</v>
+        <v>239.3772029275645</v>
       </c>
       <c r="AC6">
-        <v>0.001006377950827654</v>
+        <v>0.0009686568999787306</v>
       </c>
       <c r="AD6">
-        <v>0.838539647122</v>
+        <v>0.8471286151264793</v>
       </c>
       <c r="AE6">
-        <v>436.2252686410868</v>
+        <v>212.568005234609</v>
       </c>
       <c r="AF6">
-        <v>0.0009938784695522982</v>
+        <v>0.0009605922108778969</v>
       </c>
       <c r="AG6">
-        <v>0.7316679138407259</v>
+        <v>0.8195197042551515</v>
       </c>
       <c r="AH6">
-        <v>884.8169753298216</v>
+        <v>843.49852971526</v>
       </c>
       <c r="AI6">
-        <v>0.000996522186913711</v>
+        <v>0.0009400872434948101</v>
       </c>
       <c r="AJ6">
-        <v>0.09289219499327084</v>
+        <v>0.09401617901571901</v>
       </c>
       <c r="AK6">
-        <v>8.737289720709475</v>
+        <v>6.717572957623268</v>
       </c>
       <c r="AL6">
-        <v>0.0009997890353576574</v>
+        <v>0.0009264203165137014</v>
       </c>
       <c r="AM6">
-        <v>0.6604266005937671</v>
+        <v>0.6725357237987079</v>
       </c>
       <c r="AN6">
-        <v>24.49978526467693</v>
+        <v>24.38596837934758</v>
       </c>
       <c r="AO6">
-        <v>0.0009628904602595457</v>
+        <v>0.001001363094425124</v>
       </c>
       <c r="AP6">
-        <v>0.7382846917338364</v>
+        <v>0.7301417836801415</v>
       </c>
       <c r="AQ6">
-        <v>124.103253809559</v>
+        <v>125.5822890087317</v>
       </c>
       <c r="AR6">
-        <v>0.0009876748495590065</v>
+        <v>0.00103845728802504</v>
       </c>
       <c r="AS6">
-        <v>1.544361436226974</v>
+        <v>1.517295693916493</v>
       </c>
       <c r="AT6">
-        <v>427.719890611368</v>
+        <v>389.736586751124</v>
       </c>
       <c r="AU6">
-        <v>0.00105060473426253</v>
+        <v>0.0009906462555755999</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50.4124976097772</v>
+        <v>43.62467083948572</v>
       </c>
       <c r="C7">
         <v>87.214</v>
@@ -1387,130 +1387,130 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>409.5818605352842</v>
+        <v>414.5514065133547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>471.3465479702006</v>
+        <v>269.5634899355946</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0115593701306427</v>
+        <v>0.01263230427499608</v>
       </c>
       <c r="K7">
-        <v>0.02163911850696281</v>
+        <v>0.01980856229327734</v>
       </c>
       <c r="L7">
-        <v>0.04834557376607278</v>
+        <v>0.0589489832372197</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>917.9267738720172</v>
+        <v>794.1410701593818</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>8.2053283320439</v>
+        <v>8.21098811116061</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>24.11055670237913</v>
+        <v>25.00946012993956</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>123.3216869429173</v>
+        <v>135.6984850407951</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>429.1411035744508</v>
+        <v>399.1702973901207</v>
       </c>
       <c r="W7">
-        <v>0.00103222837112759</v>
+        <v>0.001047984128462323</v>
       </c>
       <c r="X7">
-        <v>0.9207980289404357</v>
+        <v>0.9300716738316999</v>
       </c>
       <c r="Y7">
-        <v>1097.083050491956</v>
+        <v>1108.132116961173</v>
       </c>
       <c r="Z7">
-        <v>0.001001043092969317</v>
+        <v>0.0009754977379296209</v>
       </c>
       <c r="AA7">
-        <v>0.4841647870514185</v>
+        <v>0.5381098289691939</v>
       </c>
       <c r="AB7">
-        <v>198.3051142861897</v>
+        <v>223.0741864578401</v>
       </c>
       <c r="AC7">
-        <v>0.001036710928615358</v>
+        <v>0.0009971641546791404</v>
       </c>
       <c r="AD7">
-        <v>0.8337009617312289</v>
+        <v>0.8433603956271467</v>
       </c>
       <c r="AE7">
-        <v>392.9620703514511</v>
+        <v>227.3391715187174</v>
       </c>
       <c r="AF7">
-        <v>0.001026830021870312</v>
+        <v>0.0009789502001079618</v>
       </c>
       <c r="AG7">
-        <v>0.8184509838320568</v>
+        <v>0.7950741567882387</v>
       </c>
       <c r="AH7">
-        <v>917.9267738720172</v>
+        <v>794.1410701593818</v>
       </c>
       <c r="AI7">
-        <v>0.0009803846984571256</v>
+        <v>0.001002202479834981</v>
       </c>
       <c r="AJ7">
-        <v>0.08901977284343369</v>
+        <v>0.09314205828825697</v>
       </c>
       <c r="AK7">
-        <v>8.2053283320439</v>
+        <v>8.21098811116061</v>
       </c>
       <c r="AL7">
-        <v>0.0009980913003228525</v>
+        <v>0.0009601092263461838</v>
       </c>
       <c r="AM7">
-        <v>0.716255901702859</v>
+        <v>0.7035111206848927</v>
       </c>
       <c r="AN7">
-        <v>24.11055670237913</v>
+        <v>25.00946012993956</v>
       </c>
       <c r="AO7">
-        <v>0.000987222130449116</v>
+        <v>0.0009737907777969247</v>
       </c>
       <c r="AP7">
-        <v>0.7302720329152829</v>
+        <v>0.7407029435167009</v>
       </c>
       <c r="AQ7">
-        <v>123.3216869429173</v>
+        <v>135.6984850407951</v>
       </c>
       <c r="AR7">
-        <v>0.001015238521390537</v>
+        <v>0.001012812417568742</v>
       </c>
       <c r="AS7">
-        <v>1.577135207921025</v>
+        <v>1.578923154454077</v>
       </c>
       <c r="AT7">
-        <v>429.1411035744508</v>
+        <v>399.1702973901207</v>
       </c>
       <c r="AU7">
-        <v>0.00101825318391506</v>
+        <v>0.0009753166434036829</v>
       </c>
     </row>
     <row r="8" spans="1:47">
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46.45343351146381</v>
+        <v>45.20985617486821</v>
       </c>
       <c r="C8">
         <v>87.214</v>
@@ -1530,130 +1530,130 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>350.7962705846295</v>
+        <v>401.2805919057457</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>419.8405419433377</v>
+        <v>405.4892705981244</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01221500726326247</v>
+        <v>0.01198449688344554</v>
       </c>
       <c r="K8">
-        <v>0.02225055158943944</v>
+        <v>0.01887316264742945</v>
       </c>
       <c r="L8">
-        <v>0.0462890681434457</v>
+        <v>0.04609960385625889</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>884.2651544565878</v>
+        <v>849.1633344188325</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>7.327071177271991</v>
+        <v>8.272210180114422</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>21.10474558090227</v>
+        <v>20.6764595173407</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>128.4723966786975</v>
+        <v>136.8452643832534</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>383.2247935236371</v>
+        <v>400.4068609255361</v>
       </c>
       <c r="W8">
-        <v>0.0009959700921338538</v>
+        <v>0.0009898984385455396</v>
       </c>
       <c r="X8">
-        <v>0.9278107947714941</v>
+        <v>0.9270223623041723</v>
       </c>
       <c r="Y8">
-        <v>1105.438396928977</v>
+        <v>1104.499020573717</v>
       </c>
       <c r="Z8">
-        <v>0.0009690644202666475</v>
+        <v>0.001014791184466741</v>
       </c>
       <c r="AA8">
-        <v>0.5355568728510918</v>
+        <v>0.5772899405150905</v>
       </c>
       <c r="AB8">
-        <v>187.8713536821296</v>
+        <v>231.6552490311283</v>
       </c>
       <c r="AC8">
-        <v>0.001041679754516661</v>
+        <v>0.000970504997651254</v>
       </c>
       <c r="AD8">
-        <v>0.8302377890837584</v>
+        <v>0.8398781000580512</v>
       </c>
       <c r="AE8">
-        <v>348.5674833107637</v>
+        <v>340.5615581838779</v>
       </c>
       <c r="AF8">
-        <v>0.0009877800162896933</v>
+        <v>0.0009503681883667623</v>
       </c>
       <c r="AG8">
-        <v>0.8024545302063717</v>
+        <v>0.7678928619409277</v>
       </c>
       <c r="AH8">
-        <v>884.2651544565878</v>
+        <v>849.1633344188325</v>
       </c>
       <c r="AI8">
-        <v>0.0009729316292056278</v>
+        <v>0.000995102869296615</v>
       </c>
       <c r="AJ8">
-        <v>0.08902574731289617</v>
+        <v>0.09132432038137561</v>
       </c>
       <c r="AK8">
-        <v>7.327071177271991</v>
+        <v>8.272210180114422</v>
       </c>
       <c r="AL8">
-        <v>0.0010015735249383</v>
+        <v>0.00102640745005034</v>
       </c>
       <c r="AM8">
-        <v>0.6799211049065302</v>
+        <v>0.7298543760698564</v>
       </c>
       <c r="AN8">
-        <v>21.10474558090227</v>
+        <v>20.6764595173407</v>
       </c>
       <c r="AO8">
-        <v>0.000945519194165645</v>
+        <v>0.0009959641769313016</v>
       </c>
       <c r="AP8">
-        <v>0.7287254523378432</v>
+        <v>0.7057141017273874</v>
       </c>
       <c r="AQ8">
-        <v>128.4723966786975</v>
+        <v>136.8452643832534</v>
       </c>
       <c r="AR8">
-        <v>0.0009646180035735486</v>
+        <v>0.0009579716768094207</v>
       </c>
       <c r="AS8">
-        <v>1.531144250857656</v>
+        <v>1.551605903306142</v>
       </c>
       <c r="AT8">
-        <v>383.2247935236371</v>
+        <v>400.4068609255361</v>
       </c>
       <c r="AU8">
-        <v>0.0009875555572686173</v>
+        <v>0.0009836717566938178</v>
       </c>
     </row>
     <row r="9" spans="1:47">
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43.1678687659523</v>
+        <v>36.52163372700973</v>
       </c>
       <c r="C9">
         <v>87.214</v>
@@ -1673,130 +1673,130 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>414.5798653905349</v>
+        <v>376.9832239944132</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>291.5735845143979</v>
+        <v>238.9860576494445</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01453898486051059</v>
+        <v>0.01120297084013906</v>
       </c>
       <c r="K9">
-        <v>0.01994919400983459</v>
+        <v>0.02051498613465822</v>
       </c>
       <c r="L9">
-        <v>0.04460635802978818</v>
+        <v>0.04603741285602544</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>797.8140895642164</v>
+        <v>729.720435521269</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>7.819099399464234</v>
+        <v>6.53284363416182</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>24.43298978232311</v>
+        <v>23.49765524195348</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>131.5739553402753</v>
+        <v>135.5804200905612</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>397.156044923588</v>
+        <v>437.9606077372964</v>
       </c>
       <c r="W9">
-        <v>0.0009565922334546941</v>
+        <v>0.001024221469438774</v>
       </c>
       <c r="X9">
-        <v>0.9215630036300078</v>
+        <v>0.9302782533079506</v>
       </c>
       <c r="Y9">
-        <v>1097.99447812278</v>
+        <v>1108.378245683055</v>
       </c>
       <c r="Z9">
-        <v>0.001086250714541437</v>
+        <v>0.0009918497778098239</v>
       </c>
       <c r="AA9">
-        <v>0.5691105711208442</v>
+        <v>0.561806314322566</v>
       </c>
       <c r="AB9">
-        <v>235.94178396761</v>
+        <v>211.7915556337396</v>
       </c>
       <c r="AC9">
-        <v>0.001009631254762037</v>
+        <v>0.001022987271771219</v>
       </c>
       <c r="AD9">
-        <v>0.8441821924044465</v>
+        <v>0.8465921602690555</v>
       </c>
       <c r="AE9">
-        <v>246.1412278225876</v>
+        <v>202.3237228196283</v>
       </c>
       <c r="AF9">
-        <v>0.001086302496064317</v>
+        <v>0.001014385450150446</v>
       </c>
       <c r="AG9">
-        <v>0.7895338032710291</v>
+        <v>0.7711097166602339</v>
       </c>
       <c r="AH9">
-        <v>797.8140895642164</v>
+        <v>729.720435521269</v>
       </c>
       <c r="AI9">
-        <v>0.001009218541712742</v>
+        <v>0.0009530212880277476</v>
       </c>
       <c r="AJ9">
-        <v>0.08504939119592506</v>
+        <v>0.09300378065756107</v>
       </c>
       <c r="AK9">
-        <v>7.819099399464234</v>
+        <v>6.53284363416182</v>
       </c>
       <c r="AL9">
-        <v>0.001011517736352169</v>
+        <v>0.0009980340671248084</v>
       </c>
       <c r="AM9">
-        <v>0.7259146105538943</v>
+        <v>0.7252099797777273</v>
       </c>
       <c r="AN9">
-        <v>24.43298978232311</v>
+        <v>23.49765524195348</v>
       </c>
       <c r="AO9">
-        <v>0.0009265411210371266</v>
+        <v>0.001013096211114973</v>
       </c>
       <c r="AP9">
-        <v>0.6906643365657243</v>
+        <v>0.7164691018568082</v>
       </c>
       <c r="AQ9">
-        <v>131.5739553402753</v>
+        <v>135.5804200905612</v>
       </c>
       <c r="AR9">
-        <v>0.001005630224960974</v>
+        <v>0.001010889202405906</v>
       </c>
       <c r="AS9">
-        <v>1.566738384420754</v>
+        <v>1.540539647914184</v>
       </c>
       <c r="AT9">
-        <v>397.156044923588</v>
+        <v>437.9606077372964</v>
       </c>
       <c r="AU9">
-        <v>0.001008268632453157</v>
+        <v>0.001008558958148596</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -1804,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>49.46994593577116</v>
+        <v>46.66520725823986</v>
       </c>
       <c r="C10">
         <v>87.214</v>
@@ -1816,130 +1816,130 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>397.9381610577143</v>
+        <v>427.1954927925835</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>462.6520399337339</v>
+        <v>368.2578060247981</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01067197562494157</v>
+        <v>0.01298746097883421</v>
       </c>
       <c r="K10">
-        <v>0.02003579250836286</v>
+        <v>0.02041887850393756</v>
       </c>
       <c r="L10">
-        <v>0.05185975503842222</v>
+        <v>0.04766394190427051</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>886.2451561473425</v>
+        <v>827.201081257007</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>6.830469412716987</v>
+        <v>7.011025699076625</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>25.45742625549875</v>
+        <v>24.64489214498487</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>120.1540015677081</v>
+        <v>142.1529484748365</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>441.2598853030874</v>
+        <v>421.9749589719078</v>
       </c>
       <c r="W10">
-        <v>0.0009781476248998666</v>
+        <v>0.001084144884237837</v>
       </c>
       <c r="X10">
-        <v>0.9266022660683876</v>
+        <v>0.936741425049466</v>
       </c>
       <c r="Y10">
-        <v>1103.998497717054</v>
+        <v>1116.078779293226</v>
       </c>
       <c r="Z10">
-        <v>0.0009538419395478099</v>
+        <v>0.0009439755732867818</v>
       </c>
       <c r="AA10">
-        <v>0.5125286049493564</v>
+        <v>0.5618184121905332</v>
       </c>
       <c r="AB10">
-        <v>203.9546905430226</v>
+        <v>240.0062934556816</v>
       </c>
       <c r="AC10">
-        <v>0.001032562442448242</v>
+        <v>0.001042851199780057</v>
       </c>
       <c r="AD10">
-        <v>0.8428890224806687</v>
+        <v>0.8269352650827787</v>
       </c>
       <c r="AE10">
-        <v>389.9643256884324</v>
+        <v>304.525366443919</v>
       </c>
       <c r="AF10">
-        <v>0.0009549572518032436</v>
+        <v>0.001054129801543454</v>
       </c>
       <c r="AG10">
-        <v>0.7880934930243833</v>
+        <v>0.7779654613075666</v>
       </c>
       <c r="AH10">
-        <v>886.2451561473425</v>
+        <v>827.201081257007</v>
       </c>
       <c r="AI10">
-        <v>0.001018114626745048</v>
+        <v>0.0009931788741499171</v>
       </c>
       <c r="AJ10">
-        <v>0.08714104607987097</v>
+        <v>0.09171624854755538</v>
       </c>
       <c r="AK10">
-        <v>6.830469412716987</v>
+        <v>7.011025699076625</v>
       </c>
       <c r="AL10">
-        <v>0.0009855731388378436</v>
+        <v>0.0009678550680619972</v>
       </c>
       <c r="AM10">
-        <v>0.6940252081989126</v>
+        <v>0.7066007829173676</v>
       </c>
       <c r="AN10">
-        <v>25.45742625549875</v>
+        <v>24.64489214498487</v>
       </c>
       <c r="AO10">
-        <v>0.001019314639657623</v>
+        <v>0.0009811649784716118</v>
       </c>
       <c r="AP10">
-        <v>0.6862333820279769</v>
+        <v>0.684793827183523</v>
       </c>
       <c r="AQ10">
-        <v>120.1540015677081</v>
+        <v>142.1529484748365</v>
       </c>
       <c r="AR10">
-        <v>0.0009889039540701909</v>
+        <v>0.001020393686470805</v>
       </c>
       <c r="AS10">
-        <v>1.55802533132158</v>
+        <v>1.515621718652084</v>
       </c>
       <c r="AT10">
-        <v>441.2598853030874</v>
+        <v>421.9749589719078</v>
       </c>
       <c r="AU10">
-        <v>0.0009862243328073225</v>
+        <v>0.00101702063279151</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -1947,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>44.0183610008897</v>
+        <v>48.81317497871006</v>
       </c>
       <c r="C11">
         <v>87.214</v>
@@ -1959,130 +1959,130 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>386.1220110217505</v>
+        <v>405.2634899343079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>348.7806586884058</v>
+        <v>382.0792416647751</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01158456969326583</v>
+        <v>0.01162395510564761</v>
       </c>
       <c r="K11">
-        <v>0.01597559821144815</v>
+        <v>0.02151426118769679</v>
       </c>
       <c r="L11">
-        <v>0.05568294592094519</v>
+        <v>0.05641738525872021</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>822.9484112648463</v>
+        <v>866.3499903959437</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>9.096424350780993</v>
+        <v>8.678295830319616</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>23.12175279582004</v>
+        <v>24.48889183574896</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>121.7366781215214</v>
+        <v>120.9024851130247</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>412.371546636754</v>
+        <v>418.005784477503</v>
       </c>
       <c r="W11">
-        <v>0.001035316271429</v>
+        <v>0.0009274138871512964</v>
       </c>
       <c r="X11">
-        <v>0.9154212817047211</v>
+        <v>0.9347102686345224</v>
       </c>
       <c r="Y11">
-        <v>1090.67693528136</v>
+        <v>1113.658761867367</v>
       </c>
       <c r="Z11">
-        <v>0.0009551027213642876</v>
+        <v>0.001030076216368467</v>
       </c>
       <c r="AA11">
-        <v>0.5772583923175891</v>
+        <v>0.5627821963369624</v>
       </c>
       <c r="AB11">
-        <v>222.8921713208501</v>
+        <v>228.0750769604122</v>
       </c>
       <c r="AC11">
-        <v>0.001040226781289399</v>
+        <v>0.00103437175606057</v>
       </c>
       <c r="AD11">
-        <v>0.8546242323962552</v>
+        <v>0.842734907407205</v>
       </c>
       <c r="AE11">
-        <v>298.0764027062392</v>
+        <v>321.9915143465794</v>
       </c>
       <c r="AF11">
-        <v>0.0009728302067622544</v>
+        <v>0.0009468652747151984</v>
       </c>
       <c r="AG11">
-        <v>0.7919740011160821</v>
+        <v>0.7954438089835503</v>
       </c>
       <c r="AH11">
-        <v>822.9484112648463</v>
+        <v>866.3499903959437</v>
       </c>
       <c r="AI11">
-        <v>0.001047939325548917</v>
+        <v>0.0009501158914993185</v>
       </c>
       <c r="AJ11">
-        <v>0.09128877806844127</v>
+        <v>0.08751077886526835</v>
       </c>
       <c r="AK11">
-        <v>9.096424350780993</v>
+        <v>8.678295830319616</v>
       </c>
       <c r="AL11">
-        <v>0.0009479942449879079</v>
+        <v>0.001003674187104192</v>
       </c>
       <c r="AM11">
-        <v>0.675668254362135</v>
+        <v>0.6615597097098642</v>
       </c>
       <c r="AN11">
-        <v>23.12175279582004</v>
+        <v>24.48889183574896</v>
       </c>
       <c r="AO11">
-        <v>0.001053460839844618</v>
+        <v>0.001006603968753571</v>
       </c>
       <c r="AP11">
-        <v>0.7230218043233839</v>
+        <v>0.7395801543366415</v>
       </c>
       <c r="AQ11">
-        <v>121.7366781215214</v>
+        <v>120.9024851130247</v>
       </c>
       <c r="AR11">
-        <v>0.001039378478280553</v>
+        <v>0.001053644437299344</v>
       </c>
       <c r="AS11">
-        <v>1.525618281206616</v>
+        <v>1.520434292408784</v>
       </c>
       <c r="AT11">
-        <v>412.371546636754</v>
+        <v>418.005784477503</v>
       </c>
       <c r="AU11">
-        <v>0.0009836155480028889</v>
+        <v>0.001005509676303631</v>
       </c>
     </row>
   </sheetData>
